--- a/Model Building/Processing/Result Tracking.xlsx
+++ b/Model Building/Processing/Result Tracking.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngoa\Desktop\Data Sciene\Project\Independent Research\Model Building\Processing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngoa\Desktop\Data Sciene\Project\cervical-cancer-project\Model Building\Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A2B847-B193-4046-A63B-B4EA8880311E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E300AB-9611-4FE1-80B0-FB6E786FC9E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{EF4E9F8B-A748-49B9-9920-5938C025028C}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="30">
   <si>
     <t>Logistic</t>
   </si>
@@ -106,6 +106,21 @@
   <si>
     <t>Hinselmann (4)</t>
   </si>
+  <si>
+    <t>Borderline-SMOTE SVM After Feature Selection - SelectFromModel</t>
+  </si>
+  <si>
+    <t>Biopsy (8)</t>
+  </si>
+  <si>
+    <t>ADASYN After Feature Selection - SelectFromModel</t>
+  </si>
+  <si>
+    <t>Hinselmann (7)</t>
+  </si>
+  <si>
+    <t>Biopsy (6)</t>
+  </si>
 </sst>
 </file>
 
@@ -120,15 +135,45 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -136,25 +181,216 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -471,2516 +707,3722 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20533497-BDEC-442B-BCE6-A17159CB593C}">
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:AW30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z2" sqref="Z2:AG2"/>
+      <selection pane="topRight" activeCell="AD20" sqref="AD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="9.81640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="1"/>
+    <col min="10" max="13" width="8.7265625" style="1"/>
+    <col min="14" max="14" width="8.6328125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:49" s="2" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="7"/>
       <c r="R2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="7"/>
       <c r="Z2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="7"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5" t="s">
+      <c r="I3" s="9"/>
+      <c r="J3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5" t="s">
+      <c r="K3" s="4"/>
+      <c r="L3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5" t="s">
+      <c r="M3" s="4"/>
+      <c r="N3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5" t="s">
+      <c r="O3" s="4"/>
+      <c r="P3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5" t="s">
+      <c r="Q3" s="9"/>
+      <c r="R3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5" t="s">
+      <c r="S3" s="4"/>
+      <c r="T3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5" t="s">
+      <c r="U3" s="4"/>
+      <c r="V3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5" t="s">
+      <c r="W3" s="4"/>
+      <c r="X3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5" t="s">
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5" t="s">
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5" t="s">
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5" t="s">
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AG3" s="5"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO3" s="9"/>
+      <c r="AP3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW3" s="9"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="10">
         <v>164</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>156</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>168</v>
       </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
         <v>163</v>
       </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="I4" s="11">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10">
         <v>123</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="3">
         <v>62</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="3">
         <v>108</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="3">
         <v>40</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="3">
         <v>126</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="3">
         <v>50</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="3">
         <v>127</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="11">
         <v>39</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="10">
         <v>139</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="3">
         <v>46</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="3">
         <v>125</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="3">
         <v>60</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="3">
         <v>126</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="3">
         <v>60</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="3">
         <v>121</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="11">
         <v>45</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="Z4" s="10">
         <v>118</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AA4" s="3">
         <v>48</v>
       </c>
-      <c r="AB4" s="4">
+      <c r="AB4" s="3">
         <v>112</v>
       </c>
-      <c r="AC4" s="4">
+      <c r="AC4" s="3">
         <v>53</v>
       </c>
-      <c r="AD4" s="4">
+      <c r="AD4" s="3">
         <v>116</v>
       </c>
-      <c r="AE4" s="4">
+      <c r="AE4" s="3">
         <v>39</v>
       </c>
-      <c r="AF4" s="4">
+      <c r="AF4" s="3">
         <v>113</v>
       </c>
-      <c r="AG4" s="4">
+      <c r="AG4" s="11">
         <v>48</v>
       </c>
+      <c r="AH4" s="10">
+        <v>142</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>27</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>142</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>29</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>145</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>26</v>
+      </c>
+      <c r="AN4" s="3">
+        <v>147</v>
+      </c>
+      <c r="AO4" s="11">
+        <v>24</v>
+      </c>
+      <c r="AP4" s="10">
+        <v>97</v>
+      </c>
+      <c r="AQ4" s="3">
+        <v>67</v>
+      </c>
+      <c r="AR4" s="3">
+        <v>104</v>
+      </c>
+      <c r="AS4" s="3">
+        <v>49</v>
+      </c>
+      <c r="AT4" s="3">
+        <v>96</v>
+      </c>
+      <c r="AU4" s="3">
+        <v>60</v>
+      </c>
+      <c r="AV4" s="3">
+        <v>84</v>
+      </c>
+      <c r="AW4" s="11">
+        <v>71</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B5" s="1">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="B5" s="10">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
         <v>13</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>4</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
         <v>9</v>
       </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
         <v>34</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="3">
         <v>110</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="3">
         <v>67</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="3">
         <v>98</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="3">
         <v>19</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="3">
         <v>130</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="3">
         <v>44</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="11">
         <v>111</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="10">
         <v>69</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="3">
         <v>75</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="3">
         <v>28</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="3">
         <v>116</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="3">
         <v>28</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="3">
         <v>121</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="3">
         <v>54</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5" s="11">
         <v>101</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="Z5" s="10">
         <v>47</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AA5" s="3">
         <v>116</v>
       </c>
-      <c r="AB5" s="4">
+      <c r="AB5" s="3">
         <v>50</v>
       </c>
-      <c r="AC5" s="4">
+      <c r="AC5" s="3">
         <v>98</v>
       </c>
-      <c r="AD5" s="4">
+      <c r="AD5" s="3">
         <v>44</v>
       </c>
-      <c r="AE5" s="4">
+      <c r="AE5" s="3">
         <v>126</v>
       </c>
-      <c r="AF5" s="4">
+      <c r="AF5" s="3">
         <v>59</v>
       </c>
-      <c r="AG5" s="4">
+      <c r="AG5" s="11">
         <v>101</v>
       </c>
+      <c r="AH5" s="10">
+        <v>53</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>46</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>51</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>22</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>26</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>45</v>
+      </c>
+      <c r="AN5" s="3">
+        <v>49</v>
+      </c>
+      <c r="AO5" s="11">
+        <v>30</v>
+      </c>
+      <c r="AP5" s="10">
+        <v>46</v>
+      </c>
+      <c r="AQ5" s="3">
+        <v>119</v>
+      </c>
+      <c r="AR5" s="3">
+        <v>92</v>
+      </c>
+      <c r="AS5" s="3">
+        <v>74</v>
+      </c>
+      <c r="AT5" s="3">
+        <v>66</v>
+      </c>
+      <c r="AU5" s="3">
+        <v>102</v>
+      </c>
+      <c r="AV5" s="3">
+        <v>101</v>
+      </c>
+      <c r="AW5" s="11">
+        <v>70</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B6" s="5">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="B6" s="8">
         <v>0.95348837209302295</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
         <v>0.91860465116279</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
         <v>0.97674418604651103</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
         <v>0.94767441860465096</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5">
+      <c r="I6" s="9"/>
+      <c r="J6" s="8">
         <v>0.70820668693009103</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4">
         <v>0.65814696485623003</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5">
+      <c r="M6" s="4"/>
+      <c r="N6" s="4">
         <v>0.78769230769230703</v>
       </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5">
+      <c r="O6" s="4"/>
+      <c r="P6" s="4">
         <v>0.741433021806853</v>
       </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5">
+      <c r="Q6" s="9"/>
+      <c r="R6" s="8">
         <v>0.65045592705167099</v>
       </c>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5">
+      <c r="S6" s="4"/>
+      <c r="T6" s="4">
         <v>0.73252279635258299</v>
       </c>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5">
+      <c r="U6" s="4"/>
+      <c r="V6" s="4">
         <v>0.76</v>
       </c>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5">
+      <c r="W6" s="4"/>
+      <c r="X6" s="4">
         <v>0.69158878504672805</v>
       </c>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5">
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="8">
         <v>0.711246200607902</v>
       </c>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5">
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4">
         <v>0.67092651757188504</v>
       </c>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5">
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4">
         <v>0.74461538461538401</v>
       </c>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5">
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4">
         <v>0.66666666666666596</v>
       </c>
-      <c r="AG6" s="5"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="8">
+        <v>0.70149253731343197</v>
+      </c>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4">
+        <v>0.67213114754098302</v>
+      </c>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4">
+        <v>0.78512396694214803</v>
+      </c>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="8">
+        <v>0.65653495440729404</v>
+      </c>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4">
+        <v>0.55799373040752298</v>
+      </c>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4">
+        <v>0.47239263803680898</v>
+      </c>
+      <c r="AW6" s="9"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="10">
         <v>165</v>
       </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
         <v>157</v>
       </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
         <v>168</v>
       </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
         <v>163</v>
       </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
         <v>170</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="3">
         <v>15</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="3">
         <v>131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="3">
         <v>17</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="3">
         <v>165</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="3">
         <v>11</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="3">
         <v>152</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="11">
         <v>14</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="10">
         <v>170</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="3">
         <v>15</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="3">
         <v>131</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="3">
         <v>17</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7" s="3">
         <v>165</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7" s="3">
         <v>11</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7" s="3">
         <v>146</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Y7" s="11">
         <v>20</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="Z7" s="10">
         <v>147</v>
       </c>
-      <c r="AA7" s="4">
+      <c r="AA7" s="3">
         <v>19</v>
       </c>
-      <c r="AB7" s="4">
+      <c r="AB7" s="3">
         <v>133</v>
       </c>
-      <c r="AC7" s="4">
+      <c r="AC7" s="3">
         <v>32</v>
       </c>
-      <c r="AD7" s="4">
+      <c r="AD7" s="3">
         <v>136</v>
       </c>
-      <c r="AE7" s="4">
+      <c r="AE7" s="3">
         <v>19</v>
       </c>
-      <c r="AF7" s="4">
+      <c r="AF7" s="3">
         <v>138</v>
       </c>
-      <c r="AG7" s="4">
+      <c r="AG7" s="11">
         <v>23</v>
       </c>
+      <c r="AH7" s="10">
+        <v>156</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>13</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>141</v>
+      </c>
+      <c r="AK7" s="3">
+        <v>30</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>159</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>12</v>
+      </c>
+      <c r="AN7" s="3">
+        <v>137</v>
+      </c>
+      <c r="AO7" s="11">
+        <v>34</v>
+      </c>
+      <c r="AP7" s="10">
+        <v>141</v>
+      </c>
+      <c r="AQ7" s="3">
+        <v>23</v>
+      </c>
+      <c r="AR7" s="3">
+        <v>119</v>
+      </c>
+      <c r="AS7" s="3">
+        <v>34</v>
+      </c>
+      <c r="AT7" s="3">
+        <v>132</v>
+      </c>
+      <c r="AU7" s="3">
+        <v>24</v>
+      </c>
+      <c r="AV7" s="3">
+        <v>125</v>
+      </c>
+      <c r="AW7" s="11">
+        <v>30</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B8" s="1">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="B8" s="10">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
         <v>15</v>
       </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>4</v>
       </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>9</v>
       </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
         <v>3</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="3">
         <v>141</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="3">
         <v>6</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="3">
         <v>159</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="3">
         <v>3</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="3">
         <v>146</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="3">
         <v>3</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="11">
         <v>152</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="10">
         <v>14</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="3">
         <v>130</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8" s="3">
         <v>12</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8" s="3">
         <v>153</v>
       </c>
-      <c r="V8" s="2">
+      <c r="V8" s="3">
         <v>4</v>
       </c>
-      <c r="W8" s="2">
+      <c r="W8" s="3">
         <v>145</v>
       </c>
-      <c r="X8" s="2">
+      <c r="X8" s="3">
         <v>2</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Y8" s="11">
         <v>153</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="Z8" s="10">
         <v>4</v>
       </c>
-      <c r="AA8" s="4">
+      <c r="AA8" s="3">
         <v>159</v>
       </c>
-      <c r="AB8" s="4">
+      <c r="AB8" s="3">
         <v>16</v>
       </c>
-      <c r="AC8" s="4">
+      <c r="AC8" s="3">
         <v>132</v>
       </c>
-      <c r="AD8" s="4">
+      <c r="AD8" s="3">
         <v>6</v>
       </c>
-      <c r="AE8" s="4">
+      <c r="AE8" s="3">
         <v>164</v>
       </c>
-      <c r="AF8" s="4">
+      <c r="AF8" s="3">
         <v>9</v>
       </c>
-      <c r="AG8" s="4">
+      <c r="AG8" s="11">
         <v>151</v>
       </c>
+      <c r="AH8" s="10">
+        <v>7</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>92</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>12</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>61</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>5</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>66</v>
+      </c>
+      <c r="AN8" s="3">
+        <v>5</v>
+      </c>
+      <c r="AO8" s="11">
+        <v>74</v>
+      </c>
+      <c r="AP8" s="10">
+        <v>10</v>
+      </c>
+      <c r="AQ8" s="3">
+        <v>155</v>
+      </c>
+      <c r="AR8" s="3">
+        <v>28</v>
+      </c>
+      <c r="AS8" s="3">
+        <v>138</v>
+      </c>
+      <c r="AT8" s="3">
+        <v>17</v>
+      </c>
+      <c r="AU8" s="3">
+        <v>151</v>
+      </c>
+      <c r="AV8" s="3">
+        <v>16</v>
+      </c>
+      <c r="AW8" s="11">
+        <v>155</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B9" s="5">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="B9" s="8">
         <v>0.95930232558139505</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
         <v>0.91279069767441801</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
         <v>0.97674418604651103</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4">
         <v>0.94767441860465096</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5">
+      <c r="I9" s="9"/>
+      <c r="J9" s="8">
         <v>0.94528875379939203</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5">
+      <c r="K9" s="4"/>
+      <c r="L9" s="4">
         <v>0.92651757188498396</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5">
+      <c r="M9" s="4"/>
+      <c r="N9" s="4">
         <v>0.95692307692307599</v>
       </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5">
+      <c r="O9" s="4"/>
+      <c r="P9" s="4">
         <v>0.94704049844236704</v>
       </c>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5">
+      <c r="Q9" s="9"/>
+      <c r="R9" s="8">
         <v>0.91185410334346495</v>
       </c>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5">
+      <c r="S9" s="4"/>
+      <c r="T9" s="4">
         <v>0.90734824281150095</v>
       </c>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5">
+      <c r="U9" s="4"/>
+      <c r="V9" s="4">
         <v>0.95384615384615301</v>
       </c>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5">
+      <c r="W9" s="4"/>
+      <c r="X9" s="4">
         <v>0.93146417445482799</v>
       </c>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5">
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="8">
         <v>0.93009118541033398</v>
       </c>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5">
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4">
         <v>0.84664536741214003</v>
       </c>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5">
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4">
         <v>0.92307692307692302</v>
       </c>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5">
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4">
         <v>0.90031152647974999</v>
       </c>
-      <c r="AG9" s="5"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="8">
+        <v>0.92537313432835799</v>
+      </c>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4">
+        <v>0.82786885245901598</v>
+      </c>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4">
+        <v>0.92975206611570205</v>
+      </c>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="8">
+        <v>0.89969604863221797</v>
+      </c>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4">
+        <v>0.80564263322884</v>
+      </c>
+      <c r="AS9" s="4"/>
+      <c r="AT9" s="4">
+        <v>0.87345679012345601</v>
+      </c>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4">
+        <v>0.85889570552147199</v>
+      </c>
+      <c r="AW9" s="9"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="16">
         <v>156</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="17">
         <v>9</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="17">
         <v>137</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="17">
         <v>20</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="17">
         <v>159</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="17">
         <v>9</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="17">
         <v>152</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="18">
         <v>11</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="16">
         <v>171</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="17">
         <v>14</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="17">
         <v>134</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="17">
         <v>14</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="17">
         <v>164</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="17">
         <v>12</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="17">
         <v>151</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="18">
         <v>15</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="22">
         <v>181</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="23">
         <v>4</v>
       </c>
-      <c r="T10" s="2">
+      <c r="T10" s="17">
         <v>133</v>
       </c>
-      <c r="U10" s="2">
+      <c r="U10" s="17">
         <v>15</v>
       </c>
-      <c r="V10" s="2">
+      <c r="V10" s="17">
         <v>171</v>
       </c>
-      <c r="W10" s="2">
+      <c r="W10" s="17">
         <v>5</v>
       </c>
-      <c r="X10" s="2">
+      <c r="X10" s="17">
         <v>160</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="Y10" s="18">
         <v>6</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="Z10" s="16">
         <v>156</v>
       </c>
-      <c r="AA10" s="4">
+      <c r="AA10" s="17">
         <v>10</v>
       </c>
-      <c r="AB10" s="4">
+      <c r="AB10" s="17">
         <v>144</v>
       </c>
-      <c r="AC10" s="4">
+      <c r="AC10" s="17">
         <v>21</v>
       </c>
-      <c r="AD10" s="4">
+      <c r="AD10" s="17">
         <v>143</v>
       </c>
-      <c r="AE10" s="4">
+      <c r="AE10" s="17">
         <v>12</v>
       </c>
-      <c r="AF10" s="4">
+      <c r="AF10" s="17">
         <v>145</v>
       </c>
-      <c r="AG10" s="4">
+      <c r="AG10" s="18">
         <v>16</v>
       </c>
+      <c r="AH10" s="16">
+        <v>163</v>
+      </c>
+      <c r="AI10" s="17">
+        <v>6</v>
+      </c>
+      <c r="AJ10" s="17">
+        <v>148</v>
+      </c>
+      <c r="AK10" s="17">
+        <v>23</v>
+      </c>
+      <c r="AL10" s="17">
+        <v>163</v>
+      </c>
+      <c r="AM10" s="17">
+        <v>8</v>
+      </c>
+      <c r="AN10" s="17">
+        <v>161</v>
+      </c>
+      <c r="AO10" s="18">
+        <v>10</v>
+      </c>
+      <c r="AP10" s="16">
+        <v>159</v>
+      </c>
+      <c r="AQ10" s="17">
+        <v>5</v>
+      </c>
+      <c r="AR10" s="17">
+        <v>133</v>
+      </c>
+      <c r="AS10" s="17">
+        <v>20</v>
+      </c>
+      <c r="AT10" s="17">
+        <v>149</v>
+      </c>
+      <c r="AU10" s="17">
+        <v>7</v>
+      </c>
+      <c r="AV10" s="17">
+        <v>143</v>
+      </c>
+      <c r="AW10" s="18">
+        <v>12</v>
+      </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B11" s="1">
+    <row r="11" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="16">
         <v>7</v>
       </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11" s="17">
         <v>11</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="17">
         <v>4</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="17">
         <v>4</v>
       </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="G11" s="17">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17">
         <v>6</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="18">
         <v>3</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="16">
         <v>5</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="17">
         <v>139</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="17">
         <v>14</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="17">
         <v>151</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="17">
         <v>4</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="17">
         <v>145</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="17">
         <v>12</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="18">
         <v>143</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="22">
         <v>4</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="23">
         <v>140</v>
       </c>
-      <c r="T11" s="2">
+      <c r="T11" s="17">
         <v>8</v>
       </c>
-      <c r="U11" s="2">
+      <c r="U11" s="17">
         <v>157</v>
       </c>
-      <c r="V11" s="2">
+      <c r="V11" s="17">
         <v>6</v>
       </c>
-      <c r="W11" s="2">
+      <c r="W11" s="17">
         <v>143</v>
       </c>
-      <c r="X11" s="2">
+      <c r="X11" s="17">
         <v>10</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="Y11" s="18">
         <v>145</v>
       </c>
-      <c r="Z11" s="4">
+      <c r="Z11" s="16">
         <v>8</v>
       </c>
-      <c r="AA11" s="4">
+      <c r="AA11" s="17">
         <v>155</v>
       </c>
-      <c r="AB11" s="4">
+      <c r="AB11" s="17">
         <v>13</v>
       </c>
-      <c r="AC11" s="4">
+      <c r="AC11" s="17">
         <v>135</v>
       </c>
-      <c r="AD11" s="4">
+      <c r="AD11" s="17">
         <v>19</v>
       </c>
-      <c r="AE11" s="4">
+      <c r="AE11" s="17">
         <v>151</v>
       </c>
-      <c r="AF11" s="4">
+      <c r="AF11" s="17">
         <v>8</v>
       </c>
-      <c r="AG11" s="4">
+      <c r="AG11" s="18">
         <v>152</v>
       </c>
+      <c r="AH11" s="16">
+        <v>10</v>
+      </c>
+      <c r="AI11" s="17">
+        <v>89</v>
+      </c>
+      <c r="AJ11" s="17">
+        <v>14</v>
+      </c>
+      <c r="AK11" s="17">
+        <v>59</v>
+      </c>
+      <c r="AL11" s="17">
+        <v>7</v>
+      </c>
+      <c r="AM11" s="17">
+        <v>64</v>
+      </c>
+      <c r="AN11" s="17">
+        <v>13</v>
+      </c>
+      <c r="AO11" s="18">
+        <v>66</v>
+      </c>
+      <c r="AP11" s="16">
+        <v>8</v>
+      </c>
+      <c r="AQ11" s="17">
+        <v>157</v>
+      </c>
+      <c r="AR11" s="17">
+        <v>11</v>
+      </c>
+      <c r="AS11" s="17">
+        <v>155</v>
+      </c>
+      <c r="AT11" s="17">
+        <v>15</v>
+      </c>
+      <c r="AU11" s="17">
+        <v>153</v>
+      </c>
+      <c r="AV11" s="17">
+        <v>14</v>
+      </c>
+      <c r="AW11" s="18">
+        <v>157</v>
+      </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B12" s="5">
+    <row r="12" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="19">
         <v>0.90697674418604601</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5">
+      <c r="C12" s="20"/>
+      <c r="D12" s="20">
         <v>0.81976744186046502</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5">
+      <c r="E12" s="20"/>
+      <c r="F12" s="20">
         <v>0.92441860465116199</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5">
+      <c r="G12" s="20"/>
+      <c r="H12" s="20">
         <v>0.90116279069767402</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5">
+      <c r="I12" s="21"/>
+      <c r="J12" s="19">
         <v>0.94224924012157996</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5">
+      <c r="K12" s="20"/>
+      <c r="L12" s="20">
         <v>0.91054313099041495</v>
       </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5">
+      <c r="M12" s="20"/>
+      <c r="N12" s="20">
         <v>0.95076923076923003</v>
       </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5">
+      <c r="O12" s="20"/>
+      <c r="P12" s="20">
         <v>0.91588785046728904</v>
       </c>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5">
+      <c r="Q12" s="21"/>
+      <c r="R12" s="24">
         <v>0.97568389057750704</v>
       </c>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5">
+      <c r="S12" s="25"/>
+      <c r="T12" s="20">
         <v>0.92651757188498396</v>
       </c>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5">
+      <c r="U12" s="20"/>
+      <c r="V12" s="20">
         <v>0.96615384615384603</v>
       </c>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5">
+      <c r="W12" s="20"/>
+      <c r="X12" s="20">
         <v>0.95015576323987505</v>
       </c>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5">
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="19">
         <v>0.94528875379939203</v>
       </c>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5">
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20">
         <v>0.89137380191693205</v>
       </c>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5">
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20">
         <v>0.90461538461538404</v>
       </c>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5">
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20">
         <v>0.92523364485981296</v>
       </c>
-      <c r="AG12" s="5"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="19">
+        <v>0.94029850746268595</v>
+      </c>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="20">
+        <v>0.84836065573770403</v>
+      </c>
+      <c r="AK12" s="20"/>
+      <c r="AL12" s="20">
+        <v>0.93801652892561904</v>
+      </c>
+      <c r="AM12" s="20"/>
+      <c r="AN12" s="20">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="AO12" s="21"/>
+      <c r="AP12" s="19">
+        <v>0.96048632218844898</v>
+      </c>
+      <c r="AQ12" s="20"/>
+      <c r="AR12" s="20">
+        <v>0.90282131661442</v>
+      </c>
+      <c r="AS12" s="20"/>
+      <c r="AT12" s="20">
+        <v>0.93209876543209802</v>
+      </c>
+      <c r="AU12" s="20"/>
+      <c r="AV12" s="20">
+        <v>0.92024539877300604</v>
+      </c>
+      <c r="AW12" s="21"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="16">
         <v>165</v>
       </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="17">
+        <v>0</v>
+      </c>
+      <c r="D13" s="17">
         <v>154</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="17">
         <v>3</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="17">
         <v>163</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="17">
         <v>5</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="17">
         <v>163</v>
       </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
+      <c r="I13" s="18">
+        <v>0</v>
+      </c>
+      <c r="J13" s="29">
         <v>182</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="30">
         <v>3</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="23">
         <v>143</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="23">
         <v>5</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="30">
         <v>173</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="30">
         <v>3</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="17">
         <v>165</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="18">
         <v>1</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R13" s="16">
         <v>183</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S13" s="17">
         <v>2</v>
       </c>
-      <c r="T13" s="2">
+      <c r="T13" s="23">
         <v>142</v>
       </c>
-      <c r="U13" s="2">
+      <c r="U13" s="23">
         <v>6</v>
       </c>
-      <c r="V13" s="2">
+      <c r="V13" s="33">
         <v>174</v>
       </c>
-      <c r="W13" s="2">
+      <c r="W13" s="33">
         <v>2</v>
       </c>
-      <c r="X13" s="2">
+      <c r="X13" s="33">
         <v>163</v>
       </c>
-      <c r="Y13" s="2">
+      <c r="Y13" s="37">
         <v>3</v>
       </c>
-      <c r="Z13" s="4">
+      <c r="Z13" s="39">
         <v>165</v>
       </c>
-      <c r="AA13" s="4">
+      <c r="AA13" s="40">
         <v>1</v>
       </c>
-      <c r="AB13" s="4">
+      <c r="AB13" s="30">
         <v>159</v>
       </c>
-      <c r="AC13" s="4">
+      <c r="AC13" s="30">
         <v>6</v>
       </c>
-      <c r="AD13" s="4">
+      <c r="AD13" s="17">
         <v>153</v>
       </c>
-      <c r="AE13" s="4">
+      <c r="AE13" s="17">
         <v>2</v>
       </c>
-      <c r="AF13" s="4">
+      <c r="AF13" s="17">
         <v>157</v>
       </c>
-      <c r="AG13" s="4">
+      <c r="AG13" s="18">
         <v>4</v>
       </c>
+      <c r="AH13" s="22">
+        <v>167</v>
+      </c>
+      <c r="AI13" s="23">
+        <v>2</v>
+      </c>
+      <c r="AJ13" s="17">
+        <v>160</v>
+      </c>
+      <c r="AK13" s="17">
+        <v>11</v>
+      </c>
+      <c r="AL13" s="23">
+        <v>169</v>
+      </c>
+      <c r="AM13" s="23">
+        <v>2</v>
+      </c>
+      <c r="AN13" s="23">
+        <v>169</v>
+      </c>
+      <c r="AO13" s="26">
+        <v>2</v>
+      </c>
+      <c r="AP13" s="22">
+        <v>163</v>
+      </c>
+      <c r="AQ13" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="23">
+        <v>145</v>
+      </c>
+      <c r="AS13" s="23">
+        <v>8</v>
+      </c>
+      <c r="AT13" s="17">
+        <v>151</v>
+      </c>
+      <c r="AU13" s="17">
+        <v>5</v>
+      </c>
+      <c r="AV13" s="17">
+        <v>148</v>
+      </c>
+      <c r="AW13" s="18">
+        <v>7</v>
+      </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B14" s="2">
+    <row r="14" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="16">
         <v>7</v>
       </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C14" s="17">
+        <v>0</v>
+      </c>
+      <c r="D14" s="17">
         <v>14</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="17">
         <v>1</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="17">
         <v>4</v>
       </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="G14" s="17">
+        <v>0</v>
+      </c>
+      <c r="H14" s="17">
         <v>9</v>
       </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
+      <c r="I14" s="18">
+        <v>0</v>
+      </c>
+      <c r="J14" s="29">
         <v>2</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="30">
         <v>142</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="23">
         <v>13</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="23">
         <v>152</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="30">
         <v>5</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="30">
         <v>144</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="17">
         <v>11</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14" s="18">
         <v>144</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14" s="16">
         <v>7</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14" s="17">
         <v>137</v>
       </c>
-      <c r="T14" s="2">
+      <c r="T14" s="23">
         <v>9</v>
       </c>
-      <c r="U14" s="2">
+      <c r="U14" s="23">
         <v>156</v>
       </c>
-      <c r="V14" s="2">
+      <c r="V14" s="33">
         <v>7</v>
       </c>
-      <c r="W14" s="2">
+      <c r="W14" s="33">
         <v>142</v>
       </c>
-      <c r="X14" s="2">
+      <c r="X14" s="33">
         <v>8</v>
       </c>
-      <c r="Y14" s="2">
+      <c r="Y14" s="37">
         <v>147</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="Z14" s="39">
         <v>5</v>
       </c>
-      <c r="AA14" s="4">
+      <c r="AA14" s="40">
         <v>158</v>
       </c>
-      <c r="AB14" s="4">
+      <c r="AB14" s="30">
         <v>9</v>
       </c>
-      <c r="AC14" s="4">
+      <c r="AC14" s="30">
         <v>139</v>
       </c>
-      <c r="AD14" s="4">
+      <c r="AD14" s="17">
         <v>14</v>
       </c>
-      <c r="AE14" s="4">
+      <c r="AE14" s="17">
         <v>156</v>
       </c>
-      <c r="AF14" s="4">
+      <c r="AF14" s="17">
         <v>11</v>
       </c>
-      <c r="AG14" s="4">
+      <c r="AG14" s="18">
         <v>149</v>
       </c>
+      <c r="AH14" s="22">
+        <v>7</v>
+      </c>
+      <c r="AI14" s="23">
+        <v>92</v>
+      </c>
+      <c r="AJ14" s="17">
+        <v>9</v>
+      </c>
+      <c r="AK14" s="17">
+        <v>64</v>
+      </c>
+      <c r="AL14" s="23">
+        <v>3</v>
+      </c>
+      <c r="AM14" s="23">
+        <v>68</v>
+      </c>
+      <c r="AN14" s="23">
+        <v>9</v>
+      </c>
+      <c r="AO14" s="26">
+        <v>70</v>
+      </c>
+      <c r="AP14" s="22">
+        <v>7</v>
+      </c>
+      <c r="AQ14" s="23">
+        <v>158</v>
+      </c>
+      <c r="AR14" s="23">
+        <v>11</v>
+      </c>
+      <c r="AS14" s="23">
+        <v>155</v>
+      </c>
+      <c r="AT14" s="17">
+        <v>9</v>
+      </c>
+      <c r="AU14" s="17">
+        <v>159</v>
+      </c>
+      <c r="AV14" s="17">
+        <v>14</v>
+      </c>
+      <c r="AW14" s="18">
+        <v>157</v>
+      </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B15" s="5">
+    <row r="15" spans="1:49" s="15" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="19">
         <v>0.95930232558139505</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5">
+      <c r="C15" s="20"/>
+      <c r="D15" s="20">
         <v>0.90116279069767402</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5">
+      <c r="E15" s="20"/>
+      <c r="F15" s="20">
         <v>0.94767441860465096</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5">
+      <c r="G15" s="20"/>
+      <c r="H15" s="20">
         <v>0.94767441860465096</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5">
+      <c r="I15" s="21"/>
+      <c r="J15" s="31">
         <v>0.98480243161094205</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5">
+      <c r="K15" s="32"/>
+      <c r="L15" s="25">
         <v>0.94249201277955197</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5">
+      <c r="M15" s="25"/>
+      <c r="N15" s="32">
         <v>0.97538461538461496</v>
       </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5">
+      <c r="O15" s="32"/>
+      <c r="P15" s="20">
         <v>0.96261682242990598</v>
       </c>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5">
+      <c r="Q15" s="21"/>
+      <c r="R15" s="19">
         <v>0.97264437689969596</v>
       </c>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5">
+      <c r="S15" s="20"/>
+      <c r="T15" s="25">
         <v>0.95207667731629397</v>
       </c>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5">
+      <c r="U15" s="25"/>
+      <c r="V15" s="34">
         <v>0.97230769230769198</v>
       </c>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5">
+      <c r="W15" s="34"/>
+      <c r="X15" s="34">
         <v>0.96573208722741399</v>
       </c>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5">
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="41">
         <v>0.98176291793312997</v>
       </c>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5">
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="32">
         <v>0.95207667731629397</v>
       </c>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5">
+      <c r="AC15" s="32"/>
+      <c r="AD15" s="20">
         <v>0.95076923076923003</v>
       </c>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5">
+      <c r="AE15" s="20"/>
+      <c r="AF15" s="20">
         <v>0.95327102803738295</v>
       </c>
-      <c r="AG15" s="5"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="24">
+        <v>0.96641791044776104</v>
+      </c>
+      <c r="AI15" s="25"/>
+      <c r="AJ15" s="20">
+        <v>0.91803278688524503</v>
+      </c>
+      <c r="AK15" s="20"/>
+      <c r="AL15" s="25">
+        <v>0.97933884297520601</v>
+      </c>
+      <c r="AM15" s="25"/>
+      <c r="AN15" s="25">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="AO15" s="27"/>
+      <c r="AP15" s="28">
+        <v>0.97568389057750704</v>
+      </c>
+      <c r="AQ15" s="25"/>
+      <c r="AR15" s="25">
+        <v>0.94043887147335403</v>
+      </c>
+      <c r="AS15" s="25"/>
+      <c r="AT15" s="20">
+        <v>0.95679012345679004</v>
+      </c>
+      <c r="AU15" s="20"/>
+      <c r="AV15" s="20">
+        <v>0.93558282208588905</v>
+      </c>
+      <c r="AW15" s="21"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="10">
         <v>165</v>
       </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
         <v>157</v>
       </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
         <v>168</v>
       </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
         <v>163</v>
       </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="I16" s="11">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10">
         <v>135</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="3">
         <v>50</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="3">
         <v>124</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="3">
         <v>24</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="3">
         <v>115</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="3">
         <v>61</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16" s="3">
         <v>105</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="11">
         <v>61</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16" s="10">
         <v>143</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16" s="3">
         <v>42</v>
       </c>
-      <c r="T16" s="2">
+      <c r="T16" s="3">
         <v>120</v>
       </c>
-      <c r="U16" s="2">
+      <c r="U16" s="3">
         <v>28</v>
       </c>
-      <c r="V16" s="2">
+      <c r="V16" s="3">
         <v>121</v>
       </c>
-      <c r="W16" s="2">
+      <c r="W16" s="3">
         <v>55</v>
       </c>
-      <c r="X16" s="2">
+      <c r="X16" s="3">
         <v>107</v>
       </c>
-      <c r="Y16" s="2">
+      <c r="Y16" s="11">
         <v>59</v>
       </c>
-      <c r="Z16" s="4">
+      <c r="Z16" s="10">
         <v>131</v>
       </c>
-      <c r="AA16" s="4">
+      <c r="AA16" s="3">
         <v>35</v>
       </c>
-      <c r="AB16" s="4">
+      <c r="AB16" s="3">
         <v>112</v>
       </c>
-      <c r="AC16" s="4">
+      <c r="AC16" s="3">
         <v>53</v>
       </c>
-      <c r="AD16" s="4">
+      <c r="AD16" s="3">
         <v>111</v>
       </c>
-      <c r="AE16" s="4">
+      <c r="AE16" s="3">
         <v>44</v>
       </c>
-      <c r="AF16" s="4">
+      <c r="AF16" s="3">
         <v>92</v>
       </c>
-      <c r="AG16" s="4">
+      <c r="AG16" s="11">
         <v>69</v>
       </c>
+      <c r="AH16" s="10">
+        <v>159</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>10</v>
+      </c>
+      <c r="AJ16" s="3">
+        <v>157</v>
+      </c>
+      <c r="AK16" s="3">
+        <v>14</v>
+      </c>
+      <c r="AL16" s="3">
+        <v>142</v>
+      </c>
+      <c r="AM16" s="3">
+        <v>29</v>
+      </c>
+      <c r="AN16" s="3">
+        <v>164</v>
+      </c>
+      <c r="AO16" s="11">
+        <v>7</v>
+      </c>
+      <c r="AP16" s="10">
+        <v>65</v>
+      </c>
+      <c r="AQ16" s="3">
+        <v>99</v>
+      </c>
+      <c r="AR16" s="3">
+        <v>96</v>
+      </c>
+      <c r="AS16" s="3">
+        <v>57</v>
+      </c>
+      <c r="AT16" s="3">
+        <v>110</v>
+      </c>
+      <c r="AU16" s="3">
+        <v>46</v>
+      </c>
+      <c r="AV16" s="3">
+        <v>65</v>
+      </c>
+      <c r="AW16" s="11">
+        <v>90</v>
+      </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B17" s="2">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="B17" s="10">
         <v>7</v>
       </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
         <v>15</v>
       </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>4</v>
       </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>9</v>
       </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2">
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="10">
         <v>66</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="3">
         <v>78</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="3">
         <v>96</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="3">
         <v>69</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17" s="3">
         <v>16</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="3">
         <v>133</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="3">
         <v>38</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17" s="11">
         <v>117</v>
       </c>
-      <c r="R17" s="2">
+      <c r="R17" s="10">
         <v>56</v>
       </c>
-      <c r="S17" s="2">
+      <c r="S17" s="3">
         <v>88</v>
       </c>
-      <c r="T17" s="2">
+      <c r="T17" s="3">
         <v>86</v>
       </c>
-      <c r="U17" s="2">
+      <c r="U17" s="3">
         <v>79</v>
       </c>
-      <c r="V17" s="2">
+      <c r="V17" s="3">
         <v>21</v>
       </c>
-      <c r="W17" s="2">
+      <c r="W17" s="3">
         <v>128</v>
       </c>
-      <c r="X17" s="2">
+      <c r="X17" s="3">
         <v>40</v>
       </c>
-      <c r="Y17" s="2">
+      <c r="Y17" s="11">
         <v>115</v>
       </c>
-      <c r="Z17" s="4">
+      <c r="Z17" s="10">
         <v>75</v>
       </c>
-      <c r="AA17" s="4">
+      <c r="AA17" s="3">
         <v>88</v>
       </c>
-      <c r="AB17" s="4">
+      <c r="AB17" s="3">
         <v>60</v>
       </c>
-      <c r="AC17" s="4">
+      <c r="AC17" s="3">
         <v>88</v>
       </c>
-      <c r="AD17" s="4">
+      <c r="AD17" s="3">
         <v>29</v>
       </c>
-      <c r="AE17" s="4">
+      <c r="AE17" s="3">
         <v>141</v>
       </c>
-      <c r="AF17" s="4">
+      <c r="AF17" s="3">
         <v>30</v>
       </c>
-      <c r="AG17" s="4">
+      <c r="AG17" s="11">
         <v>130</v>
       </c>
+      <c r="AH17" s="10">
+        <v>66</v>
+      </c>
+      <c r="AI17" s="3">
+        <v>33</v>
+      </c>
+      <c r="AJ17" s="3">
+        <v>57</v>
+      </c>
+      <c r="AK17" s="3">
+        <v>16</v>
+      </c>
+      <c r="AL17" s="3">
+        <v>20</v>
+      </c>
+      <c r="AM17" s="3">
+        <v>51</v>
+      </c>
+      <c r="AN17" s="3">
+        <v>64</v>
+      </c>
+      <c r="AO17" s="11">
+        <v>15</v>
+      </c>
+      <c r="AP17" s="10">
+        <v>43</v>
+      </c>
+      <c r="AQ17" s="3">
+        <v>122</v>
+      </c>
+      <c r="AR17" s="3">
+        <v>76</v>
+      </c>
+      <c r="AS17" s="3">
+        <v>90</v>
+      </c>
+      <c r="AT17" s="3">
+        <v>91</v>
+      </c>
+      <c r="AU17" s="3">
+        <v>77</v>
+      </c>
+      <c r="AV17" s="3">
+        <v>83</v>
+      </c>
+      <c r="AW17" s="11">
+        <v>88</v>
+      </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B18" s="5">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="B18" s="8">
         <v>0.95930232558139505</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4">
         <v>0.91279069767441801</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4">
         <v>0.97674418604651103</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5">
+      <c r="G18" s="4"/>
+      <c r="H18" s="4">
         <v>0.94767441860465096</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5">
+      <c r="I18" s="9"/>
+      <c r="J18" s="8">
         <v>0.64741641337386002</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5">
+      <c r="K18" s="4"/>
+      <c r="L18" s="4">
         <v>0.61661341853035101</v>
       </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5">
+      <c r="M18" s="4"/>
+      <c r="N18" s="4">
         <v>0.76307692307692299</v>
       </c>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5">
+      <c r="O18" s="4"/>
+      <c r="P18" s="4">
         <v>0.69158878504672805</v>
       </c>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5">
+      <c r="Q18" s="9"/>
+      <c r="R18" s="8">
         <v>0.70212765957446799</v>
       </c>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5">
+      <c r="S18" s="4"/>
+      <c r="T18" s="4">
         <v>0.63578274760383302</v>
       </c>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5">
+      <c r="U18" s="4"/>
+      <c r="V18" s="4">
         <v>0.76615384615384596</v>
       </c>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5">
+      <c r="W18" s="4"/>
+      <c r="X18" s="4">
         <v>0.69158878504672805</v>
       </c>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5">
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="8">
         <v>0.66565349544072905</v>
       </c>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5">
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4">
         <v>0.63897763578274702</v>
       </c>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5">
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4">
         <v>0.77538461538461501</v>
       </c>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5">
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4">
         <v>0.69158878504672805</v>
       </c>
-      <c r="AG18" s="5"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="8">
+        <v>0.71641791044776104</v>
+      </c>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4">
+        <v>0.70901639344262202</v>
+      </c>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4">
+        <v>0.79752066115702402</v>
+      </c>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="AO18" s="9"/>
+      <c r="AP18" s="8">
+        <v>0.56838905775075899</v>
+      </c>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4">
+        <v>0.583072100313479</v>
+      </c>
+      <c r="AS18" s="4"/>
+      <c r="AT18" s="4">
+        <v>0.57716049382715995</v>
+      </c>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4">
+        <v>0.46932515337423297</v>
+      </c>
+      <c r="AW18" s="9"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="16">
         <v>165</v>
       </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="C19" s="17">
+        <v>0</v>
+      </c>
+      <c r="D19" s="17">
         <v>157</v>
       </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="E19" s="17">
+        <v>0</v>
+      </c>
+      <c r="F19" s="17">
         <v>168</v>
       </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="G19" s="17">
+        <v>0</v>
+      </c>
+      <c r="H19" s="17">
         <v>163</v>
       </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2">
+      <c r="I19" s="18">
+        <v>0</v>
+      </c>
+      <c r="J19" s="16">
         <v>175</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="17">
         <v>10</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="17">
         <v>138</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="17">
         <v>10</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="17">
         <v>168</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19" s="17">
         <v>8</v>
       </c>
-      <c r="P19" s="2">
+      <c r="P19" s="30">
         <v>159</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q19" s="35">
         <v>7</v>
       </c>
-      <c r="R19" s="2">
+      <c r="R19" s="16">
         <v>179</v>
       </c>
-      <c r="S19" s="2">
+      <c r="S19" s="17">
         <v>15</v>
       </c>
-      <c r="T19" s="2">
+      <c r="T19" s="17">
         <v>135</v>
       </c>
-      <c r="U19" s="2">
+      <c r="U19" s="17">
         <v>13</v>
       </c>
-      <c r="V19" s="2">
+      <c r="V19" s="17">
         <v>166</v>
       </c>
-      <c r="W19" s="2">
+      <c r="W19" s="17">
         <v>10</v>
       </c>
-      <c r="X19" s="2">
+      <c r="X19" s="17">
         <v>154</v>
       </c>
-      <c r="Y19" s="2">
+      <c r="Y19" s="18">
         <v>12</v>
       </c>
-      <c r="Z19" s="4">
+      <c r="Z19" s="16">
         <v>153</v>
       </c>
-      <c r="AA19" s="4">
+      <c r="AA19" s="17">
         <v>13</v>
       </c>
-      <c r="AB19" s="4">
+      <c r="AB19" s="17">
         <v>158</v>
       </c>
-      <c r="AC19" s="4">
+      <c r="AC19" s="17">
         <v>7</v>
       </c>
-      <c r="AD19" s="4">
+      <c r="AD19" s="23">
         <v>151</v>
       </c>
-      <c r="AE19" s="4">
+      <c r="AE19" s="23">
         <v>4</v>
       </c>
-      <c r="AF19" s="4">
+      <c r="AF19" s="17">
         <v>156</v>
       </c>
-      <c r="AG19" s="4">
+      <c r="AG19" s="18">
         <v>5</v>
       </c>
+      <c r="AH19" s="16">
+        <v>166</v>
+      </c>
+      <c r="AI19" s="17">
+        <v>3</v>
+      </c>
+      <c r="AJ19" s="23">
+        <v>167</v>
+      </c>
+      <c r="AK19" s="23">
+        <v>4</v>
+      </c>
+      <c r="AL19" s="17">
+        <v>168</v>
+      </c>
+      <c r="AM19" s="17">
+        <v>3</v>
+      </c>
+      <c r="AN19" s="17">
+        <v>167</v>
+      </c>
+      <c r="AO19" s="18">
+        <v>4</v>
+      </c>
+      <c r="AP19" s="16">
+        <v>157</v>
+      </c>
+      <c r="AQ19" s="17">
+        <v>7</v>
+      </c>
+      <c r="AR19" s="17">
+        <v>139</v>
+      </c>
+      <c r="AS19" s="17">
+        <v>14</v>
+      </c>
+      <c r="AT19" s="17">
+        <v>138</v>
+      </c>
+      <c r="AU19" s="17">
+        <v>18</v>
+      </c>
+      <c r="AV19" s="17">
+        <v>145</v>
+      </c>
+      <c r="AW19" s="18">
+        <v>10</v>
+      </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B20" s="2">
+    <row r="20" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="16">
         <v>7</v>
       </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="C20" s="17">
+        <v>0</v>
+      </c>
+      <c r="D20" s="17">
         <v>15</v>
       </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
+      <c r="E20" s="17">
+        <v>0</v>
+      </c>
+      <c r="F20" s="17">
         <v>4</v>
       </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
+      <c r="G20" s="17">
+        <v>0</v>
+      </c>
+      <c r="H20" s="17">
         <v>9</v>
       </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2">
+      <c r="I20" s="18">
+        <v>0</v>
+      </c>
+      <c r="J20" s="16">
         <v>1</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="17">
         <v>143</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="17">
         <v>8</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="17">
         <v>157</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20" s="17">
         <v>3</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20" s="17">
         <v>146</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P20" s="30">
         <v>3</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q20" s="35">
         <v>152</v>
       </c>
-      <c r="R20" s="2">
+      <c r="R20" s="16">
         <v>19</v>
       </c>
-      <c r="S20" s="2">
+      <c r="S20" s="17">
         <v>125</v>
       </c>
-      <c r="T20" s="2">
+      <c r="T20" s="17">
         <v>13</v>
       </c>
-      <c r="U20" s="2">
+      <c r="U20" s="17">
         <v>152</v>
       </c>
-      <c r="V20" s="2">
+      <c r="V20" s="17">
         <v>7</v>
       </c>
-      <c r="W20" s="2">
+      <c r="W20" s="17">
         <v>142</v>
       </c>
-      <c r="X20" s="2">
+      <c r="X20" s="17">
         <v>3</v>
       </c>
-      <c r="Y20" s="2">
+      <c r="Y20" s="18">
         <v>152</v>
       </c>
-      <c r="Z20" s="4">
+      <c r="Z20" s="16">
         <v>4</v>
       </c>
-      <c r="AA20" s="4">
+      <c r="AA20" s="17">
         <v>159</v>
       </c>
-      <c r="AB20" s="4">
+      <c r="AB20" s="17">
         <v>30</v>
       </c>
-      <c r="AC20" s="4">
+      <c r="AC20" s="17">
         <v>118</v>
       </c>
-      <c r="AD20" s="4">
+      <c r="AD20" s="23">
         <v>7</v>
       </c>
-      <c r="AE20" s="4">
+      <c r="AE20" s="23">
         <v>163</v>
       </c>
-      <c r="AF20" s="4">
+      <c r="AF20" s="17">
         <v>10</v>
       </c>
-      <c r="AG20" s="4">
+      <c r="AG20" s="18">
         <v>150</v>
       </c>
+      <c r="AH20" s="16">
+        <v>7</v>
+      </c>
+      <c r="AI20" s="17">
+        <v>92</v>
+      </c>
+      <c r="AJ20" s="23">
+        <v>12</v>
+      </c>
+      <c r="AK20" s="23">
+        <v>61</v>
+      </c>
+      <c r="AL20" s="17">
+        <v>7</v>
+      </c>
+      <c r="AM20" s="17">
+        <v>64</v>
+      </c>
+      <c r="AN20" s="17">
+        <v>9</v>
+      </c>
+      <c r="AO20" s="18">
+        <v>70</v>
+      </c>
+      <c r="AP20" s="16">
+        <v>13</v>
+      </c>
+      <c r="AQ20" s="17">
+        <v>152</v>
+      </c>
+      <c r="AR20" s="17">
+        <v>30</v>
+      </c>
+      <c r="AS20" s="17">
+        <v>136</v>
+      </c>
+      <c r="AT20" s="17">
+        <v>8</v>
+      </c>
+      <c r="AU20" s="17">
+        <v>160</v>
+      </c>
+      <c r="AV20" s="17">
+        <v>27</v>
+      </c>
+      <c r="AW20" s="18">
+        <v>144</v>
+      </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B21" s="5">
+    <row r="21" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="19">
         <v>0.95930232558139505</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5">
+      <c r="C21" s="20"/>
+      <c r="D21" s="20">
         <v>0.91279069767441801</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5">
+      <c r="E21" s="20"/>
+      <c r="F21" s="20">
         <v>0.97674418604651103</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5">
+      <c r="G21" s="20"/>
+      <c r="H21" s="20">
         <v>0.94767441860465096</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5">
+      <c r="I21" s="21"/>
+      <c r="J21" s="19">
         <v>0.96656534954407203</v>
       </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5">
+      <c r="K21" s="20"/>
+      <c r="L21" s="20">
         <v>0.94249201277955197</v>
       </c>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5">
+      <c r="M21" s="20"/>
+      <c r="N21" s="20">
         <v>0.96615384615384603</v>
       </c>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5">
+      <c r="O21" s="20"/>
+      <c r="P21" s="32">
         <v>0.968847352024922</v>
       </c>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5">
+      <c r="Q21" s="36"/>
+      <c r="R21" s="19">
         <v>0.896656534954407</v>
       </c>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5">
+      <c r="S21" s="20"/>
+      <c r="T21" s="20">
         <v>0.91693290734824195</v>
       </c>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5">
+      <c r="U21" s="20"/>
+      <c r="V21" s="20">
         <v>0.94769230769230695</v>
       </c>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5">
+      <c r="W21" s="20"/>
+      <c r="X21" s="20">
         <v>0.95327102803738295</v>
       </c>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5">
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="19">
         <v>0.948328267477203</v>
       </c>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5">
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20">
         <v>0.88178913738019105</v>
       </c>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5">
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="25">
         <v>0.96615384615384603</v>
       </c>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="5">
+      <c r="AE21" s="25"/>
+      <c r="AF21" s="20">
         <v>0.95327102803738295</v>
       </c>
-      <c r="AG21" s="5"/>
+      <c r="AG21" s="21"/>
+      <c r="AH21" s="19">
+        <v>0.962686567164179</v>
+      </c>
+      <c r="AI21" s="20"/>
+      <c r="AJ21" s="25">
+        <v>0.93442622950819598</v>
+      </c>
+      <c r="AK21" s="25"/>
+      <c r="AL21" s="20">
+        <v>0.95867768595041303</v>
+      </c>
+      <c r="AM21" s="20"/>
+      <c r="AN21" s="20">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="AO21" s="21"/>
+      <c r="AP21" s="19">
+        <v>0.93920972644376899</v>
+      </c>
+      <c r="AQ21" s="20"/>
+      <c r="AR21" s="20">
+        <v>0.86206896551724099</v>
+      </c>
+      <c r="AS21" s="20"/>
+      <c r="AT21" s="20">
+        <v>0.91975308641975295</v>
+      </c>
+      <c r="AU21" s="20"/>
+      <c r="AV21" s="20">
+        <v>0.88650306748466201</v>
+      </c>
+      <c r="AW21" s="21"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="10">
         <v>145</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="3">
         <v>20</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="3">
         <v>131</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="3">
         <v>26</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="3">
         <v>16</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="3">
         <v>152</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="3">
         <v>144</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="11">
         <v>19</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="10">
         <v>42</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="3">
         <v>143</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="3">
         <v>120</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="3">
         <v>28</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22" s="3">
         <v>29</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22" s="3">
         <v>147</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P22" s="3">
         <v>58</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="Q22" s="11">
         <v>108</v>
       </c>
-      <c r="R22" s="2">
+      <c r="R22" s="10">
         <v>158</v>
       </c>
-      <c r="S22" s="2">
+      <c r="S22" s="3">
         <v>27</v>
       </c>
-      <c r="T22" s="2">
+      <c r="T22" s="3">
         <v>117</v>
       </c>
-      <c r="U22" s="2">
+      <c r="U22" s="3">
         <v>31</v>
       </c>
-      <c r="V22" s="2">
+      <c r="V22" s="3">
         <v>37</v>
       </c>
-      <c r="W22" s="2">
+      <c r="W22" s="3">
         <v>139</v>
       </c>
-      <c r="X22" s="2">
+      <c r="X22" s="3">
         <v>68</v>
       </c>
-      <c r="Y22" s="2">
+      <c r="Y22" s="11">
         <v>98</v>
       </c>
-      <c r="Z22" s="4">
+      <c r="Z22" s="10">
         <v>146</v>
       </c>
-      <c r="AA22" s="4">
+      <c r="AA22" s="3">
         <v>20</v>
       </c>
-      <c r="AB22" s="4">
+      <c r="AB22" s="3">
         <v>124</v>
       </c>
-      <c r="AC22" s="4">
+      <c r="AC22" s="3">
         <v>41</v>
       </c>
-      <c r="AD22" s="4">
+      <c r="AD22" s="3">
         <v>109</v>
       </c>
-      <c r="AE22" s="4">
+      <c r="AE22" s="3">
         <v>46</v>
       </c>
-      <c r="AF22" s="4">
+      <c r="AF22" s="3">
         <v>146</v>
       </c>
-      <c r="AG22" s="4">
+      <c r="AG22" s="11">
         <v>15</v>
       </c>
+      <c r="AH22" s="10">
+        <v>153</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>16</v>
+      </c>
+      <c r="AJ22" s="3">
+        <v>134</v>
+      </c>
+      <c r="AK22" s="3">
+        <v>37</v>
+      </c>
+      <c r="AL22" s="3">
+        <v>142</v>
+      </c>
+      <c r="AM22" s="3">
+        <v>29</v>
+      </c>
+      <c r="AN22" s="3">
+        <v>159</v>
+      </c>
+      <c r="AO22" s="11">
+        <v>12</v>
+      </c>
+      <c r="AP22" s="10">
+        <v>85</v>
+      </c>
+      <c r="AQ22" s="3">
+        <v>79</v>
+      </c>
+      <c r="AR22" s="3">
+        <v>109</v>
+      </c>
+      <c r="AS22" s="3">
+        <v>44</v>
+      </c>
+      <c r="AT22" s="3">
+        <v>121</v>
+      </c>
+      <c r="AU22" s="3">
+        <v>35</v>
+      </c>
+      <c r="AV22" s="3">
+        <v>103</v>
+      </c>
+      <c r="AW22" s="11">
+        <v>52</v>
+      </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B23" s="1">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="B23" s="10">
         <v>6</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="3">
         <v>1</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="3">
         <v>7</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="3">
         <v>8</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="3">
         <v>2</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="3">
         <v>2</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="3">
         <v>6</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="11">
         <v>3</v>
       </c>
-      <c r="J23" s="2">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2">
+      <c r="J23" s="10">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>144</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="3">
         <v>94</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="3">
         <v>71</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="3">
         <v>1</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23" s="3">
         <v>148</v>
       </c>
-      <c r="P23" s="2">
+      <c r="P23" s="3">
         <v>3</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q23" s="11">
         <v>152</v>
       </c>
-      <c r="R23" s="2">
+      <c r="R23" s="10">
         <v>90</v>
       </c>
-      <c r="S23" s="2">
+      <c r="S23" s="3">
         <v>54</v>
       </c>
-      <c r="T23" s="2">
+      <c r="T23" s="3">
         <v>86</v>
       </c>
-      <c r="U23" s="2">
+      <c r="U23" s="3">
         <v>79</v>
       </c>
-      <c r="V23" s="2">
+      <c r="V23" s="3">
         <v>4</v>
       </c>
-      <c r="W23" s="2">
+      <c r="W23" s="3">
         <v>145</v>
       </c>
-      <c r="X23" s="2">
+      <c r="X23" s="3">
         <v>20</v>
       </c>
-      <c r="Y23" s="2">
+      <c r="Y23" s="11">
         <v>135</v>
       </c>
-      <c r="Z23" s="4">
+      <c r="Z23" s="10">
         <v>89</v>
       </c>
-      <c r="AA23" s="4">
+      <c r="AA23" s="3">
         <v>74</v>
       </c>
-      <c r="AB23" s="4">
+      <c r="AB23" s="3">
         <v>65</v>
       </c>
-      <c r="AC23" s="4">
+      <c r="AC23" s="3">
         <v>83</v>
       </c>
-      <c r="AD23" s="4">
+      <c r="AD23" s="3">
         <v>32</v>
       </c>
-      <c r="AE23" s="4">
+      <c r="AE23" s="3">
         <v>138</v>
       </c>
-      <c r="AF23" s="4">
+      <c r="AF23" s="3">
         <v>100</v>
       </c>
-      <c r="AG23" s="4">
+      <c r="AG23" s="11">
         <v>60</v>
       </c>
+      <c r="AH23" s="10">
+        <v>56</v>
+      </c>
+      <c r="AI23" s="3">
+        <v>43</v>
+      </c>
+      <c r="AJ23" s="3">
+        <v>47</v>
+      </c>
+      <c r="AK23" s="3">
+        <v>26</v>
+      </c>
+      <c r="AL23" s="3">
+        <v>10</v>
+      </c>
+      <c r="AM23" s="3">
+        <v>61</v>
+      </c>
+      <c r="AN23" s="3">
+        <v>47</v>
+      </c>
+      <c r="AO23" s="11">
+        <v>32</v>
+      </c>
+      <c r="AP23" s="10">
+        <v>33</v>
+      </c>
+      <c r="AQ23" s="3">
+        <v>132</v>
+      </c>
+      <c r="AR23" s="3">
+        <v>85</v>
+      </c>
+      <c r="AS23" s="3">
+        <v>81</v>
+      </c>
+      <c r="AT23" s="3">
+        <v>86</v>
+      </c>
+      <c r="AU23" s="3">
+        <v>82</v>
+      </c>
+      <c r="AV23" s="3">
+        <v>98</v>
+      </c>
+      <c r="AW23" s="11">
+        <v>73</v>
+      </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B24" s="5">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="B24" s="8">
         <v>0.84883720930232498</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4">
         <v>0.80813953488372003</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4">
         <v>0.104651162790697</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5">
+      <c r="G24" s="4"/>
+      <c r="H24" s="4">
         <v>0.85465116279069697</v>
       </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5">
+      <c r="I24" s="9"/>
+      <c r="J24" s="8">
         <v>0.56534954407294802</v>
       </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5">
+      <c r="K24" s="4"/>
+      <c r="L24" s="4">
         <v>0.61022364217252401</v>
       </c>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5">
+      <c r="M24" s="4"/>
+      <c r="N24" s="4">
         <v>0.54461538461538395</v>
       </c>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5">
+      <c r="O24" s="4"/>
+      <c r="P24" s="4">
         <v>0.65420560747663503</v>
       </c>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5">
+      <c r="Q24" s="9"/>
+      <c r="R24" s="8">
         <v>0.64437689969604794</v>
       </c>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5">
+      <c r="S24" s="4"/>
+      <c r="T24" s="4">
         <v>0.62619808306709202</v>
       </c>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5">
+      <c r="U24" s="4"/>
+      <c r="V24" s="4">
         <v>0.56000000000000005</v>
       </c>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5">
+      <c r="W24" s="4"/>
+      <c r="X24" s="4">
         <v>0.63239875389408096</v>
       </c>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5">
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="8">
         <v>0.66869300911854102</v>
       </c>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5">
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4">
         <v>0.66134185303514303</v>
       </c>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5">
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4">
         <v>0.76</v>
       </c>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5">
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4">
         <v>0.64174454828660399</v>
       </c>
-      <c r="AG24" s="5"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="8">
+        <v>0.731343283582089</v>
+      </c>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4">
+        <v>0.65573770491803196</v>
+      </c>
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="4">
+        <v>0.838842975206611</v>
+      </c>
+      <c r="AM24" s="4"/>
+      <c r="AN24" s="4">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="AO24" s="9"/>
+      <c r="AP24" s="8">
+        <v>0.659574468085106</v>
+      </c>
+      <c r="AQ24" s="4"/>
+      <c r="AR24" s="4">
+        <v>0.59561128526645701</v>
+      </c>
+      <c r="AS24" s="4"/>
+      <c r="AT24" s="4">
+        <v>0.62654320987654299</v>
+      </c>
+      <c r="AU24" s="4"/>
+      <c r="AV24" s="4">
+        <v>0.53987730061349604</v>
+      </c>
+      <c r="AW24" s="9"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="16">
         <v>164</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="17">
         <v>1</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="17">
         <v>150</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="17">
         <v>7</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="17">
         <v>166</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="17">
         <v>2</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="17">
         <v>162</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="18">
         <v>1</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="16">
         <v>181</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="17">
         <v>4</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="17">
         <v>141</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="17">
         <v>7</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="17">
         <v>172</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25" s="17">
         <v>4</v>
       </c>
-      <c r="P25" s="2">
+      <c r="P25" s="17">
         <v>164</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q25" s="18">
         <v>2</v>
       </c>
-      <c r="R25" s="2">
+      <c r="R25" s="22">
         <v>183</v>
       </c>
-      <c r="S25" s="2">
+      <c r="S25" s="23">
         <v>2</v>
       </c>
-      <c r="T25" s="2">
+      <c r="T25" s="17">
         <v>142</v>
       </c>
-      <c r="U25" s="2">
+      <c r="U25" s="17">
         <v>6</v>
       </c>
-      <c r="V25" s="2">
+      <c r="V25" s="17">
         <v>176</v>
       </c>
-      <c r="W25" s="2">
+      <c r="W25" s="17">
         <v>6</v>
       </c>
-      <c r="X25" s="2">
+      <c r="X25" s="33">
         <v>163</v>
       </c>
-      <c r="Y25" s="2">
+      <c r="Y25" s="37">
         <v>3</v>
       </c>
-      <c r="Z25" s="4">
+      <c r="Z25" s="16">
         <v>161</v>
       </c>
-      <c r="AA25" s="4">
+      <c r="AA25" s="17">
         <v>5</v>
       </c>
-      <c r="AB25" s="4">
+      <c r="AB25" s="30">
         <v>159</v>
       </c>
-      <c r="AC25" s="4">
+      <c r="AC25" s="30">
         <v>6</v>
       </c>
-      <c r="AD25" s="4">
+      <c r="AD25" s="17">
         <v>153</v>
       </c>
-      <c r="AE25" s="4">
+      <c r="AE25" s="17">
         <v>2</v>
       </c>
-      <c r="AF25" s="4">
+      <c r="AF25" s="23">
         <v>158</v>
       </c>
-      <c r="AG25" s="4">
+      <c r="AG25" s="26">
         <v>3</v>
       </c>
+      <c r="AH25" s="16">
+        <v>164</v>
+      </c>
+      <c r="AI25" s="17">
+        <v>5</v>
+      </c>
+      <c r="AJ25" s="17">
+        <v>160</v>
+      </c>
+      <c r="AK25" s="17">
+        <v>11</v>
+      </c>
+      <c r="AL25" s="17">
+        <v>166</v>
+      </c>
+      <c r="AM25" s="17">
+        <v>5</v>
+      </c>
+      <c r="AN25" s="17">
+        <v>167</v>
+      </c>
+      <c r="AO25" s="18">
+        <v>4</v>
+      </c>
+      <c r="AP25" s="16">
+        <v>159</v>
+      </c>
+      <c r="AQ25" s="17">
+        <v>5</v>
+      </c>
+      <c r="AR25" s="17">
+        <v>142</v>
+      </c>
+      <c r="AS25" s="17">
+        <v>11</v>
+      </c>
+      <c r="AT25" s="23">
+        <v>154</v>
+      </c>
+      <c r="AU25" s="23">
+        <v>2</v>
+      </c>
+      <c r="AV25" s="23">
+        <v>151</v>
+      </c>
+      <c r="AW25" s="26">
+        <v>4</v>
+      </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B26" s="1">
+    <row r="26" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="16">
         <v>7</v>
       </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="C26" s="17">
+        <v>0</v>
+      </c>
+      <c r="D26" s="17">
         <v>13</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="17">
         <v>2</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="17">
         <v>4</v>
       </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1">
+      <c r="G26" s="17">
+        <v>0</v>
+      </c>
+      <c r="H26" s="17">
         <v>8</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="18">
         <v>1</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="16">
         <v>5</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="17">
         <v>139</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="17">
         <v>12</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="17">
         <v>153</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="17">
         <v>6</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26" s="17">
         <v>143</v>
       </c>
-      <c r="P26" s="2">
+      <c r="P26" s="17">
         <v>11</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="Q26" s="18">
         <v>144</v>
       </c>
-      <c r="R26" s="2">
+      <c r="R26" s="22">
         <v>6</v>
       </c>
-      <c r="S26" s="2">
+      <c r="S26" s="23">
         <v>138</v>
       </c>
-      <c r="T26" s="2">
+      <c r="T26" s="17">
         <v>11</v>
       </c>
-      <c r="U26" s="2">
+      <c r="U26" s="17">
         <v>154</v>
       </c>
-      <c r="V26" s="2">
+      <c r="V26" s="17">
         <v>6</v>
       </c>
-      <c r="W26" s="2">
+      <c r="W26" s="17">
         <v>143</v>
       </c>
-      <c r="X26" s="2">
+      <c r="X26" s="33">
         <v>8</v>
       </c>
-      <c r="Y26" s="2">
+      <c r="Y26" s="37">
         <v>147</v>
       </c>
-      <c r="Z26" s="4">
+      <c r="Z26" s="16">
         <v>6</v>
       </c>
-      <c r="AA26" s="4">
+      <c r="AA26" s="17">
         <v>157</v>
       </c>
-      <c r="AB26" s="4">
+      <c r="AB26" s="30">
         <v>9</v>
       </c>
-      <c r="AC26" s="4">
+      <c r="AC26" s="30">
         <v>139</v>
       </c>
-      <c r="AD26" s="4">
+      <c r="AD26" s="17">
         <v>11</v>
       </c>
-      <c r="AE26" s="4">
+      <c r="AE26" s="17">
         <v>159</v>
       </c>
-      <c r="AF26" s="4">
+      <c r="AF26" s="23">
         <v>10</v>
       </c>
-      <c r="AG26" s="4">
+      <c r="AG26" s="26">
         <v>150</v>
       </c>
+      <c r="AH26" s="16">
+        <v>8</v>
+      </c>
+      <c r="AI26" s="17">
+        <v>91</v>
+      </c>
+      <c r="AJ26" s="17">
+        <v>13</v>
+      </c>
+      <c r="AK26" s="17">
+        <v>60</v>
+      </c>
+      <c r="AL26" s="17">
+        <v>2</v>
+      </c>
+      <c r="AM26" s="17">
+        <v>69</v>
+      </c>
+      <c r="AN26" s="17">
+        <v>9</v>
+      </c>
+      <c r="AO26" s="18">
+        <v>70</v>
+      </c>
+      <c r="AP26" s="16">
+        <v>7</v>
+      </c>
+      <c r="AQ26" s="17">
+        <v>158</v>
+      </c>
+      <c r="AR26" s="17">
+        <v>10</v>
+      </c>
+      <c r="AS26" s="17">
+        <v>156</v>
+      </c>
+      <c r="AT26" s="23">
+        <v>9</v>
+      </c>
+      <c r="AU26" s="23">
+        <v>159</v>
+      </c>
+      <c r="AV26" s="23">
+        <v>12</v>
+      </c>
+      <c r="AW26" s="26">
+        <v>159</v>
+      </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B27" s="5">
+    <row r="27" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="19">
         <v>0.95348837209302295</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5">
+      <c r="C27" s="20"/>
+      <c r="D27" s="20">
         <v>0.88372093023255804</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5">
+      <c r="E27" s="20"/>
+      <c r="F27" s="20">
         <v>0.96511627906976705</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5">
+      <c r="G27" s="20"/>
+      <c r="H27" s="20">
         <v>0.94767441860465096</v>
       </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5">
+      <c r="I27" s="21"/>
+      <c r="J27" s="19">
         <v>0.97264437689969596</v>
       </c>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5">
+      <c r="K27" s="20"/>
+      <c r="L27" s="20">
         <v>0.93929712460063897</v>
       </c>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5">
+      <c r="M27" s="20"/>
+      <c r="N27" s="20">
         <v>0.96923076923076901</v>
       </c>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5">
+      <c r="O27" s="20"/>
+      <c r="P27" s="20">
         <v>0.95950155763239797</v>
       </c>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5">
+      <c r="Q27" s="21"/>
+      <c r="R27" s="24">
         <v>0.97568389057750704</v>
       </c>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5">
+      <c r="S27" s="25"/>
+      <c r="T27" s="20">
         <v>0.94568690095846597</v>
       </c>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5">
+      <c r="U27" s="20"/>
+      <c r="V27" s="20">
         <v>0.96307692307692305</v>
       </c>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5">
+      <c r="W27" s="20"/>
+      <c r="X27" s="34">
         <v>0.96573208722741399</v>
       </c>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5">
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="19">
         <v>0.96656534954407203</v>
       </c>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5">
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="32">
         <v>0.95207667731629397</v>
       </c>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="5">
+      <c r="AC27" s="32"/>
+      <c r="AD27" s="20">
         <v>0.96</v>
       </c>
-      <c r="AE27" s="5"/>
-      <c r="AF27" s="5">
+      <c r="AE27" s="20"/>
+      <c r="AF27" s="25">
         <v>0.95950155763239797</v>
       </c>
-      <c r="AG27" s="5"/>
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="19">
+        <v>0.95149253731343197</v>
+      </c>
+      <c r="AI27" s="20"/>
+      <c r="AJ27" s="20">
+        <v>0.90163934426229497</v>
+      </c>
+      <c r="AK27" s="20"/>
+      <c r="AL27" s="20">
+        <v>0.97107438016528902</v>
+      </c>
+      <c r="AM27" s="20"/>
+      <c r="AN27" s="20">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="AO27" s="21"/>
+      <c r="AP27" s="19">
+        <v>0.96352583586626095</v>
+      </c>
+      <c r="AQ27" s="20"/>
+      <c r="AR27" s="20">
+        <v>0.93416927899686497</v>
+      </c>
+      <c r="AS27" s="20"/>
+      <c r="AT27" s="25">
+        <v>0.96604938271604901</v>
+      </c>
+      <c r="AU27" s="25"/>
+      <c r="AV27" s="25">
+        <v>0.95092024539877296</v>
+      </c>
+      <c r="AW27" s="27"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="10">
         <v>165</v>
       </c>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
         <v>157</v>
       </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2">
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
         <v>168</v>
       </c>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2">
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
         <v>163</v>
       </c>
-      <c r="I28" s="2">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2">
+      <c r="I28" s="11">
+        <v>0</v>
+      </c>
+      <c r="J28" s="10">
         <v>46</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="3">
         <v>139</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28" s="3">
         <v>131</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28" s="3">
         <v>17</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N28" s="3">
         <v>143</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28" s="3">
         <v>33</v>
       </c>
-      <c r="P28" s="2">
+      <c r="P28" s="3">
         <v>150</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="Q28" s="11">
         <v>16</v>
       </c>
-      <c r="R28" s="2">
+      <c r="R28" s="10">
         <v>161</v>
       </c>
-      <c r="S28" s="2">
+      <c r="S28" s="3">
         <v>24</v>
       </c>
-      <c r="T28" s="2">
+      <c r="T28" s="3">
         <v>148</v>
       </c>
-      <c r="U28" s="2">
-        <v>0</v>
-      </c>
-      <c r="V28" s="2">
-        <v>0</v>
-      </c>
-      <c r="W28" s="2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
         <v>176</v>
       </c>
-      <c r="X28" s="2">
+      <c r="X28" s="3">
         <v>6</v>
       </c>
-      <c r="Y28" s="2">
+      <c r="Y28" s="11">
         <v>160</v>
       </c>
-      <c r="Z28" s="4">
+      <c r="Z28" s="10">
         <v>166</v>
       </c>
-      <c r="AA28" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="4">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
         <v>135</v>
       </c>
-      <c r="AC28" s="4">
+      <c r="AC28" s="3">
         <v>30</v>
       </c>
-      <c r="AD28" s="4">
+      <c r="AD28" s="3">
         <v>70</v>
       </c>
-      <c r="AE28" s="4">
+      <c r="AE28" s="3">
         <v>85</v>
       </c>
-      <c r="AF28" s="4">
+      <c r="AF28" s="3">
         <v>55</v>
       </c>
-      <c r="AG28" s="4">
+      <c r="AG28" s="11">
         <v>106</v>
       </c>
+      <c r="AH28" s="10">
+        <v>132</v>
+      </c>
+      <c r="AI28" s="3">
+        <v>37</v>
+      </c>
+      <c r="AJ28" s="3">
+        <v>171</v>
+      </c>
+      <c r="AK28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="3">
+        <v>171</v>
+      </c>
+      <c r="AM28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="3">
+        <v>168</v>
+      </c>
+      <c r="AO28" s="11">
+        <v>3</v>
+      </c>
+      <c r="AP28" s="10">
+        <v>48</v>
+      </c>
+      <c r="AQ28" s="3">
+        <v>116</v>
+      </c>
+      <c r="AR28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="3">
+        <v>153</v>
+      </c>
+      <c r="AT28" s="3">
+        <v>156</v>
+      </c>
+      <c r="AU28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="11">
+        <v>155</v>
+      </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B29" s="1">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="B29" s="10">
         <v>7</v>
       </c>
-      <c r="C29" s="1">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
         <v>15</v>
       </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2">
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>4</v>
       </c>
-      <c r="G29" s="2">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>9</v>
       </c>
-      <c r="I29" s="2">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2">
+      <c r="I29" s="11">
+        <v>0</v>
+      </c>
+      <c r="J29" s="10">
         <v>9</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="3">
         <v>135</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29" s="3">
         <v>42</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="3">
         <v>123</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29" s="3">
         <v>7</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O29" s="3">
         <v>142</v>
       </c>
-      <c r="P29" s="2">
+      <c r="P29" s="3">
         <v>21</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="Q29" s="11">
         <v>134</v>
       </c>
-      <c r="R29" s="2">
+      <c r="R29" s="10">
         <v>44</v>
       </c>
-      <c r="S29" s="2">
+      <c r="S29" s="3">
         <v>100</v>
       </c>
-      <c r="T29" s="2">
+      <c r="T29" s="3">
         <v>165</v>
       </c>
-      <c r="U29" s="2">
-        <v>0</v>
-      </c>
-      <c r="V29" s="2">
-        <v>0</v>
-      </c>
-      <c r="W29" s="2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>149</v>
       </c>
-      <c r="X29" s="2">
+      <c r="X29" s="3">
         <v>1</v>
       </c>
-      <c r="Y29" s="2">
+      <c r="Y29" s="11">
         <v>154</v>
       </c>
-      <c r="Z29" s="4">
+      <c r="Z29" s="10">
         <v>163</v>
       </c>
-      <c r="AA29" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="4">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
         <v>81</v>
       </c>
-      <c r="AC29" s="4">
+      <c r="AC29" s="3">
         <v>67</v>
       </c>
-      <c r="AD29" s="4">
+      <c r="AD29" s="3">
         <v>29</v>
       </c>
-      <c r="AE29" s="4">
+      <c r="AE29" s="3">
         <v>141</v>
       </c>
-      <c r="AF29" s="4">
+      <c r="AF29" s="3">
         <v>12</v>
       </c>
-      <c r="AG29" s="4">
+      <c r="AG29" s="11">
         <v>148</v>
       </c>
+      <c r="AH29" s="10">
+        <v>30</v>
+      </c>
+      <c r="AI29" s="3">
+        <v>69</v>
+      </c>
+      <c r="AJ29" s="3">
+        <v>73</v>
+      </c>
+      <c r="AK29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="3">
+        <v>73</v>
+      </c>
+      <c r="AM29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="3">
+        <v>77</v>
+      </c>
+      <c r="AO29" s="11">
+        <v>2</v>
+      </c>
+      <c r="AP29" s="10">
+        <v>2</v>
+      </c>
+      <c r="AQ29" s="3">
+        <v>163</v>
+      </c>
+      <c r="AR29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="3">
+        <v>166</v>
+      </c>
+      <c r="AT29" s="3">
+        <v>168</v>
+      </c>
+      <c r="AU29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="11">
+        <v>171</v>
+      </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B30" s="5">
+    <row r="30" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="12">
         <v>0.95930232558139505</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5">
+      <c r="C30" s="13"/>
+      <c r="D30" s="13">
         <v>0.91279069767441801</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5">
+      <c r="E30" s="13"/>
+      <c r="F30" s="13">
         <v>0.97674418604651103</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5">
+      <c r="G30" s="13"/>
+      <c r="H30" s="13">
         <v>0.94767441860465096</v>
       </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5">
+      <c r="I30" s="14"/>
+      <c r="J30" s="12">
         <v>0.55015197568388996</v>
       </c>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5">
+      <c r="K30" s="13"/>
+      <c r="L30" s="13">
         <v>0.81150159744408901</v>
       </c>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5">
+      <c r="M30" s="13"/>
+      <c r="N30" s="13">
         <v>0.87692307692307603</v>
       </c>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5">
+      <c r="O30" s="13"/>
+      <c r="P30" s="13">
         <v>0.88473520249221105</v>
       </c>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5">
+      <c r="Q30" s="14"/>
+      <c r="R30" s="12">
         <v>0.79331306990881401</v>
       </c>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5">
+      <c r="S30" s="13"/>
+      <c r="T30" s="13">
         <v>0.47284345047923299</v>
       </c>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5">
+      <c r="U30" s="13"/>
+      <c r="V30" s="13">
         <v>0.45846153846153798</v>
       </c>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5">
+      <c r="W30" s="13"/>
+      <c r="X30" s="13">
         <v>0.49844236760124599</v>
       </c>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5">
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="12">
         <v>0.50455927051671701</v>
       </c>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5">
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="13">
         <v>0.64536741214057503</v>
       </c>
-      <c r="AC30" s="5"/>
-      <c r="AD30" s="5">
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13">
         <v>0.64923076923076894</v>
       </c>
-      <c r="AE30" s="5"/>
-      <c r="AF30" s="5">
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="13">
         <v>0.63239875389408096</v>
       </c>
-      <c r="AG30" s="5"/>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="AI30" s="13"/>
+      <c r="AJ30" s="13">
+        <v>0.70081967213114704</v>
+      </c>
+      <c r="AK30" s="13"/>
+      <c r="AL30" s="13">
+        <v>0.70081967213114704</v>
+      </c>
+      <c r="AM30" s="13"/>
+      <c r="AN30" s="13">
+        <v>0.68</v>
+      </c>
+      <c r="AO30" s="14"/>
+      <c r="AP30" s="12">
+        <v>0.64133738601823698</v>
+      </c>
+      <c r="AQ30" s="13"/>
+      <c r="AR30" s="13">
+        <v>0.52037617554858895</v>
+      </c>
+      <c r="AS30" s="13"/>
+      <c r="AT30" s="13">
+        <v>0.48148148148148101</v>
+      </c>
+      <c r="AU30" s="13"/>
+      <c r="AV30" s="13">
+        <v>0.52453987730061302</v>
+      </c>
+      <c r="AW30" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="164">
+  <mergeCells count="246">
     <mergeCell ref="Z27:AA27"/>
     <mergeCell ref="AB27:AC27"/>
     <mergeCell ref="AD27:AE27"/>
@@ -3023,6 +4465,18 @@
     <mergeCell ref="AB6:AC6"/>
     <mergeCell ref="AD6:AE6"/>
     <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
@@ -3048,14 +4502,6 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="F30:G30"/>
@@ -3104,10 +4550,6 @@
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="T9:U9"/>
     <mergeCell ref="V9:W9"/>
@@ -3145,7 +4587,90 @@
     <mergeCell ref="T27:U27"/>
     <mergeCell ref="V27:W27"/>
     <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="AH2:AO2"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="AN12:AO12"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="AJ15:AK15"/>
+    <mergeCell ref="AL15:AM15"/>
+    <mergeCell ref="AN15:AO15"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AJ18:AK18"/>
+    <mergeCell ref="AL18:AM18"/>
+    <mergeCell ref="AN18:AO18"/>
+    <mergeCell ref="AH21:AI21"/>
+    <mergeCell ref="AJ21:AK21"/>
+    <mergeCell ref="AL21:AM21"/>
+    <mergeCell ref="AN21:AO21"/>
+    <mergeCell ref="AH24:AI24"/>
+    <mergeCell ref="AJ24:AK24"/>
+    <mergeCell ref="AL24:AM24"/>
+    <mergeCell ref="AN24:AO24"/>
+    <mergeCell ref="AH27:AI27"/>
+    <mergeCell ref="AJ27:AK27"/>
+    <mergeCell ref="AL27:AM27"/>
+    <mergeCell ref="AN27:AO27"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="AJ30:AK30"/>
+    <mergeCell ref="AL30:AM30"/>
+    <mergeCell ref="AN30:AO30"/>
+    <mergeCell ref="AP2:AW2"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="AV3:AW3"/>
+    <mergeCell ref="AP6:AQ6"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AP9:AQ9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AP12:AQ12"/>
+    <mergeCell ref="AR12:AS12"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AP15:AQ15"/>
+    <mergeCell ref="AR15:AS15"/>
+    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AP18:AQ18"/>
+    <mergeCell ref="AR18:AS18"/>
+    <mergeCell ref="AT18:AU18"/>
+    <mergeCell ref="AV18:AW18"/>
+    <mergeCell ref="AP30:AQ30"/>
+    <mergeCell ref="AR30:AS30"/>
+    <mergeCell ref="AT30:AU30"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AP21:AQ21"/>
+    <mergeCell ref="AR21:AS21"/>
+    <mergeCell ref="AT21:AU21"/>
+    <mergeCell ref="AV21:AW21"/>
+    <mergeCell ref="AP24:AQ24"/>
+    <mergeCell ref="AR24:AS24"/>
+    <mergeCell ref="AT24:AU24"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AP27:AQ27"/>
+    <mergeCell ref="AR27:AS27"/>
+    <mergeCell ref="AT27:AU27"/>
+    <mergeCell ref="AV27:AW27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Model Building/Processing/Result Tracking.xlsx
+++ b/Model Building/Processing/Result Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngoa\Desktop\Data Sciene\Project\cervical-cancer-project\Model Building\Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E300AB-9611-4FE1-80B0-FB6E786FC9E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768964D5-022D-431E-8D20-4ADCB461F430}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{EF4E9F8B-A748-49B9-9920-5938C025028C}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Logistic</t>
   </si>
@@ -276,49 +276,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -336,25 +300,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -366,16 +312,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -387,11 +324,74 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,9 +709,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20533497-BDEC-442B-BCE6-A17159CB593C}">
   <dimension ref="A1:AW30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD20" sqref="AD20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P30" sqref="P30:Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -725,170 +725,170 @@
   <sheetData>
     <row r="1" spans="1:49" s="2" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="5" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="5" t="s">
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="5" t="s">
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="5" t="s">
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="5" t="s">
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="AQ2" s="6"/>
-      <c r="AR2" s="6"/>
-      <c r="AS2" s="6"/>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="6"/>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="7"/>
+      <c r="AQ2" s="35"/>
+      <c r="AR2" s="35"/>
+      <c r="AS2" s="35"/>
+      <c r="AT2" s="35"/>
+      <c r="AU2" s="35"/>
+      <c r="AV2" s="35"/>
+      <c r="AW2" s="36"/>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="8" t="s">
+      <c r="I3" s="30"/>
+      <c r="J3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4" t="s">
+      <c r="K3" s="29"/>
+      <c r="L3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4" t="s">
+      <c r="M3" s="29"/>
+      <c r="N3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4" t="s">
+      <c r="O3" s="29"/>
+      <c r="P3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="8" t="s">
+      <c r="Q3" s="30"/>
+      <c r="R3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4" t="s">
+      <c r="S3" s="29"/>
+      <c r="T3" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4" t="s">
+      <c r="U3" s="29"/>
+      <c r="V3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4" t="s">
+      <c r="W3" s="29"/>
+      <c r="X3" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="8" t="s">
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4" t="s">
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4" t="s">
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4" t="s">
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="8" t="s">
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4" t="s">
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="4" t="s">
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="4" t="s">
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="AO3" s="9"/>
-      <c r="AP3" s="8" t="s">
+      <c r="AO3" s="30"/>
+      <c r="AP3" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AQ3" s="4"/>
-      <c r="AR3" s="4" t="s">
+      <c r="AQ3" s="29"/>
+      <c r="AR3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="AS3" s="4"/>
-      <c r="AT3" s="4" t="s">
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="AU3" s="4"/>
-      <c r="AV3" s="4" t="s">
+      <c r="AU3" s="29"/>
+      <c r="AV3" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="AW3" s="9"/>
+      <c r="AW3" s="30"/>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="4">
         <v>164</v>
       </c>
       <c r="C4" s="3">
@@ -909,10 +909,10 @@
       <c r="H4" s="3">
         <v>163</v>
       </c>
-      <c r="I4" s="11">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10">
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
         <v>123</v>
       </c>
       <c r="K4" s="3">
@@ -933,10 +933,10 @@
       <c r="P4" s="3">
         <v>127</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="5">
         <v>39</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4" s="4">
         <v>139</v>
       </c>
       <c r="S4" s="3">
@@ -957,10 +957,10 @@
       <c r="X4" s="3">
         <v>121</v>
       </c>
-      <c r="Y4" s="11">
+      <c r="Y4" s="5">
         <v>45</v>
       </c>
-      <c r="Z4" s="10">
+      <c r="Z4" s="4">
         <v>118</v>
       </c>
       <c r="AA4" s="3">
@@ -981,10 +981,10 @@
       <c r="AF4" s="3">
         <v>113</v>
       </c>
-      <c r="AG4" s="11">
+      <c r="AG4" s="5">
         <v>48</v>
       </c>
-      <c r="AH4" s="10">
+      <c r="AH4" s="4">
         <v>142</v>
       </c>
       <c r="AI4" s="3">
@@ -1005,10 +1005,10 @@
       <c r="AN4" s="3">
         <v>147</v>
       </c>
-      <c r="AO4" s="11">
+      <c r="AO4" s="5">
         <v>24</v>
       </c>
-      <c r="AP4" s="10">
+      <c r="AP4" s="4">
         <v>97</v>
       </c>
       <c r="AQ4" s="3">
@@ -1029,12 +1029,12 @@
       <c r="AV4" s="3">
         <v>84</v>
       </c>
-      <c r="AW4" s="11">
+      <c r="AW4" s="5">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="B5" s="10">
+      <c r="B5" s="4">
         <v>7</v>
       </c>
       <c r="C5" s="3">
@@ -1055,10 +1055,10 @@
       <c r="H5" s="3">
         <v>9</v>
       </c>
-      <c r="I5" s="11">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10">
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
         <v>34</v>
       </c>
       <c r="K5" s="3">
@@ -1079,10 +1079,10 @@
       <c r="P5" s="3">
         <v>44</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="5">
         <v>111</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R5" s="4">
         <v>69</v>
       </c>
       <c r="S5" s="3">
@@ -1103,10 +1103,10 @@
       <c r="X5" s="3">
         <v>54</v>
       </c>
-      <c r="Y5" s="11">
+      <c r="Y5" s="5">
         <v>101</v>
       </c>
-      <c r="Z5" s="10">
+      <c r="Z5" s="4">
         <v>47</v>
       </c>
       <c r="AA5" s="3">
@@ -1127,10 +1127,10 @@
       <c r="AF5" s="3">
         <v>59</v>
       </c>
-      <c r="AG5" s="11">
+      <c r="AG5" s="5">
         <v>101</v>
       </c>
-      <c r="AH5" s="10">
+      <c r="AH5" s="4">
         <v>53</v>
       </c>
       <c r="AI5" s="3">
@@ -1151,10 +1151,10 @@
       <c r="AN5" s="3">
         <v>49</v>
       </c>
-      <c r="AO5" s="11">
+      <c r="AO5" s="5">
         <v>30</v>
       </c>
-      <c r="AP5" s="10">
+      <c r="AP5" s="4">
         <v>46</v>
       </c>
       <c r="AQ5" s="3">
@@ -1175,113 +1175,113 @@
       <c r="AV5" s="3">
         <v>101</v>
       </c>
-      <c r="AW5" s="11">
+      <c r="AW5" s="5">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="B6" s="8">
+      <c r="B6" s="28">
         <v>0.95348837209302295</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4">
+      <c r="C6" s="29"/>
+      <c r="D6" s="29">
         <v>0.91860465116279</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
+      <c r="E6" s="29"/>
+      <c r="F6" s="29">
         <v>0.97674418604651103</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4">
+      <c r="G6" s="29"/>
+      <c r="H6" s="29">
         <v>0.94767441860465096</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="8">
+      <c r="I6" s="30"/>
+      <c r="J6" s="28">
         <v>0.70820668693009103</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4">
+      <c r="K6" s="29"/>
+      <c r="L6" s="29">
         <v>0.65814696485623003</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4">
+      <c r="M6" s="29"/>
+      <c r="N6" s="29">
         <v>0.78769230769230703</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4">
+      <c r="O6" s="29"/>
+      <c r="P6" s="29">
         <v>0.741433021806853</v>
       </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="8">
+      <c r="Q6" s="30"/>
+      <c r="R6" s="28">
         <v>0.65045592705167099</v>
       </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4">
+      <c r="S6" s="29"/>
+      <c r="T6" s="29">
         <v>0.73252279635258299</v>
       </c>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4">
+      <c r="U6" s="29"/>
+      <c r="V6" s="29">
         <v>0.76</v>
       </c>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4">
+      <c r="W6" s="29"/>
+      <c r="X6" s="29">
         <v>0.69158878504672805</v>
       </c>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="8">
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="28">
         <v>0.711246200607902</v>
       </c>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4">
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29">
         <v>0.67092651757188504</v>
       </c>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4">
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29">
         <v>0.74461538461538401</v>
       </c>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4">
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29">
         <v>0.66666666666666596</v>
       </c>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="8">
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="28">
         <v>0.70149253731343197</v>
       </c>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4">
+      <c r="AI6" s="29"/>
+      <c r="AJ6" s="29">
         <v>0.67213114754098302</v>
       </c>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4">
+      <c r="AK6" s="29"/>
+      <c r="AL6" s="29">
         <v>0.78512396694214803</v>
       </c>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="4">
+      <c r="AM6" s="29"/>
+      <c r="AN6" s="29">
         <v>0.70799999999999996</v>
       </c>
-      <c r="AO6" s="9"/>
-      <c r="AP6" s="8">
+      <c r="AO6" s="30"/>
+      <c r="AP6" s="28">
         <v>0.65653495440729404</v>
       </c>
-      <c r="AQ6" s="4"/>
-      <c r="AR6" s="4">
+      <c r="AQ6" s="29"/>
+      <c r="AR6" s="29">
         <v>0.55799373040752298</v>
       </c>
-      <c r="AS6" s="4"/>
-      <c r="AT6" s="4">
+      <c r="AS6" s="29"/>
+      <c r="AT6" s="29">
         <v>0.61111111111111105</v>
       </c>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="4">
+      <c r="AU6" s="29"/>
+      <c r="AV6" s="29">
         <v>0.47239263803680898</v>
       </c>
-      <c r="AW6" s="9"/>
+      <c r="AW6" s="30"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="4">
         <v>165</v>
       </c>
       <c r="C7" s="3">
@@ -1302,10 +1302,10 @@
       <c r="H7" s="3">
         <v>163</v>
       </c>
-      <c r="I7" s="11">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10">
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
         <v>170</v>
       </c>
       <c r="K7" s="3">
@@ -1326,10 +1326,10 @@
       <c r="P7" s="3">
         <v>152</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="5">
         <v>14</v>
       </c>
-      <c r="R7" s="10">
+      <c r="R7" s="4">
         <v>170</v>
       </c>
       <c r="S7" s="3">
@@ -1350,10 +1350,10 @@
       <c r="X7" s="3">
         <v>146</v>
       </c>
-      <c r="Y7" s="11">
+      <c r="Y7" s="5">
         <v>20</v>
       </c>
-      <c r="Z7" s="10">
+      <c r="Z7" s="4">
         <v>147</v>
       </c>
       <c r="AA7" s="3">
@@ -1374,10 +1374,10 @@
       <c r="AF7" s="3">
         <v>138</v>
       </c>
-      <c r="AG7" s="11">
+      <c r="AG7" s="5">
         <v>23</v>
       </c>
-      <c r="AH7" s="10">
+      <c r="AH7" s="4">
         <v>156</v>
       </c>
       <c r="AI7" s="3">
@@ -1398,10 +1398,10 @@
       <c r="AN7" s="3">
         <v>137</v>
       </c>
-      <c r="AO7" s="11">
+      <c r="AO7" s="5">
         <v>34</v>
       </c>
-      <c r="AP7" s="10">
+      <c r="AP7" s="4">
         <v>141</v>
       </c>
       <c r="AQ7" s="3">
@@ -1422,12 +1422,12 @@
       <c r="AV7" s="3">
         <v>125</v>
       </c>
-      <c r="AW7" s="11">
+      <c r="AW7" s="5">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="B8" s="10">
+      <c r="B8" s="4">
         <v>7</v>
       </c>
       <c r="C8" s="3">
@@ -1448,10 +1448,10 @@
       <c r="H8" s="3">
         <v>9</v>
       </c>
-      <c r="I8" s="11">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10">
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
         <v>3</v>
       </c>
       <c r="K8" s="3">
@@ -1472,10 +1472,10 @@
       <c r="P8" s="3">
         <v>3</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="5">
         <v>152</v>
       </c>
-      <c r="R8" s="10">
+      <c r="R8" s="4">
         <v>14</v>
       </c>
       <c r="S8" s="3">
@@ -1496,10 +1496,10 @@
       <c r="X8" s="3">
         <v>2</v>
       </c>
-      <c r="Y8" s="11">
+      <c r="Y8" s="5">
         <v>153</v>
       </c>
-      <c r="Z8" s="10">
+      <c r="Z8" s="4">
         <v>4</v>
       </c>
       <c r="AA8" s="3">
@@ -1520,10 +1520,10 @@
       <c r="AF8" s="3">
         <v>9</v>
       </c>
-      <c r="AG8" s="11">
+      <c r="AG8" s="5">
         <v>151</v>
       </c>
-      <c r="AH8" s="10">
+      <c r="AH8" s="4">
         <v>7</v>
       </c>
       <c r="AI8" s="3">
@@ -1544,10 +1544,10 @@
       <c r="AN8" s="3">
         <v>5</v>
       </c>
-      <c r="AO8" s="11">
+      <c r="AO8" s="5">
         <v>74</v>
       </c>
-      <c r="AP8" s="10">
+      <c r="AP8" s="4">
         <v>10</v>
       </c>
       <c r="AQ8" s="3">
@@ -1568,899 +1568,899 @@
       <c r="AV8" s="3">
         <v>16</v>
       </c>
-      <c r="AW8" s="11">
+      <c r="AW8" s="5">
         <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="B9" s="8">
+      <c r="B9" s="28">
         <v>0.95930232558139505</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4">
+      <c r="C9" s="29"/>
+      <c r="D9" s="29">
         <v>0.91279069767441801</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4">
+      <c r="E9" s="29"/>
+      <c r="F9" s="29">
         <v>0.97674418604651103</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4">
+      <c r="G9" s="29"/>
+      <c r="H9" s="29">
         <v>0.94767441860465096</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="8">
+      <c r="I9" s="30"/>
+      <c r="J9" s="28">
         <v>0.94528875379939203</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4">
+      <c r="K9" s="29"/>
+      <c r="L9" s="29">
         <v>0.92651757188498396</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4">
+      <c r="M9" s="29"/>
+      <c r="N9" s="29">
         <v>0.95692307692307599</v>
       </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4">
+      <c r="O9" s="29"/>
+      <c r="P9" s="29">
         <v>0.94704049844236704</v>
       </c>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="8">
+      <c r="Q9" s="30"/>
+      <c r="R9" s="28">
         <v>0.91185410334346495</v>
       </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4">
+      <c r="S9" s="29"/>
+      <c r="T9" s="29">
         <v>0.90734824281150095</v>
       </c>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4">
+      <c r="U9" s="29"/>
+      <c r="V9" s="29">
         <v>0.95384615384615301</v>
       </c>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4">
+      <c r="W9" s="29"/>
+      <c r="X9" s="29">
         <v>0.93146417445482799</v>
       </c>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="8">
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="28">
         <v>0.93009118541033398</v>
       </c>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4">
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29">
         <v>0.84664536741214003</v>
       </c>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4">
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="29">
         <v>0.92307692307692302</v>
       </c>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4">
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="29">
         <v>0.90031152647974999</v>
       </c>
-      <c r="AG9" s="9"/>
-      <c r="AH9" s="8">
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="28">
         <v>0.92537313432835799</v>
       </c>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4">
+      <c r="AI9" s="29"/>
+      <c r="AJ9" s="29">
         <v>0.82786885245901598</v>
       </c>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4">
+      <c r="AK9" s="29"/>
+      <c r="AL9" s="29">
         <v>0.92975206611570205</v>
       </c>
-      <c r="AM9" s="4"/>
-      <c r="AN9" s="4">
+      <c r="AM9" s="29"/>
+      <c r="AN9" s="29">
         <v>0.84399999999999997</v>
       </c>
-      <c r="AO9" s="9"/>
-      <c r="AP9" s="8">
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="28">
         <v>0.89969604863221797</v>
       </c>
-      <c r="AQ9" s="4"/>
-      <c r="AR9" s="4">
+      <c r="AQ9" s="29"/>
+      <c r="AR9" s="29">
         <v>0.80564263322884</v>
       </c>
-      <c r="AS9" s="4"/>
-      <c r="AT9" s="4">
+      <c r="AS9" s="29"/>
+      <c r="AT9" s="29">
         <v>0.87345679012345601</v>
       </c>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="4">
+      <c r="AU9" s="29"/>
+      <c r="AV9" s="29">
         <v>0.85889570552147199</v>
       </c>
-      <c r="AW9" s="9"/>
+      <c r="AW9" s="30"/>
     </row>
-    <row r="10" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="7">
         <v>156</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="8">
         <v>9</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="8">
         <v>137</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="8">
         <v>20</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="8">
         <v>159</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="8">
         <v>9</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="8">
         <v>152</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="9">
         <v>11</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="7">
         <v>171</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="8">
         <v>14</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="8">
         <v>134</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="8">
         <v>14</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="8">
         <v>164</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O10" s="8">
         <v>12</v>
       </c>
-      <c r="P10" s="17">
+      <c r="P10" s="8">
         <v>151</v>
       </c>
-      <c r="Q10" s="18">
+      <c r="Q10" s="9">
         <v>15</v>
       </c>
-      <c r="R10" s="22">
+      <c r="R10" s="10">
         <v>181</v>
       </c>
-      <c r="S10" s="23">
+      <c r="S10" s="11">
         <v>4</v>
       </c>
-      <c r="T10" s="17">
+      <c r="T10" s="8">
         <v>133</v>
       </c>
-      <c r="U10" s="17">
+      <c r="U10" s="8">
         <v>15</v>
       </c>
-      <c r="V10" s="17">
+      <c r="V10" s="8">
         <v>171</v>
       </c>
-      <c r="W10" s="17">
+      <c r="W10" s="8">
         <v>5</v>
       </c>
-      <c r="X10" s="17">
+      <c r="X10" s="8">
         <v>160</v>
       </c>
-      <c r="Y10" s="18">
+      <c r="Y10" s="9">
         <v>6</v>
       </c>
-      <c r="Z10" s="16">
+      <c r="Z10" s="7">
         <v>156</v>
       </c>
-      <c r="AA10" s="17">
+      <c r="AA10" s="8">
         <v>10</v>
       </c>
-      <c r="AB10" s="17">
+      <c r="AB10" s="8">
         <v>144</v>
       </c>
-      <c r="AC10" s="17">
+      <c r="AC10" s="8">
         <v>21</v>
       </c>
-      <c r="AD10" s="17">
+      <c r="AD10" s="8">
         <v>143</v>
       </c>
-      <c r="AE10" s="17">
+      <c r="AE10" s="8">
         <v>12</v>
       </c>
-      <c r="AF10" s="17">
+      <c r="AF10" s="8">
         <v>145</v>
       </c>
-      <c r="AG10" s="18">
+      <c r="AG10" s="9">
         <v>16</v>
       </c>
-      <c r="AH10" s="16">
+      <c r="AH10" s="7">
         <v>163</v>
       </c>
-      <c r="AI10" s="17">
+      <c r="AI10" s="8">
         <v>6</v>
       </c>
-      <c r="AJ10" s="17">
+      <c r="AJ10" s="8">
         <v>148</v>
       </c>
-      <c r="AK10" s="17">
+      <c r="AK10" s="8">
         <v>23</v>
       </c>
-      <c r="AL10" s="17">
+      <c r="AL10" s="8">
         <v>163</v>
       </c>
-      <c r="AM10" s="17">
+      <c r="AM10" s="8">
         <v>8</v>
       </c>
-      <c r="AN10" s="17">
+      <c r="AN10" s="8">
         <v>161</v>
       </c>
-      <c r="AO10" s="18">
+      <c r="AO10" s="9">
         <v>10</v>
       </c>
-      <c r="AP10" s="16">
+      <c r="AP10" s="7">
         <v>159</v>
       </c>
-      <c r="AQ10" s="17">
+      <c r="AQ10" s="8">
         <v>5</v>
       </c>
-      <c r="AR10" s="17">
+      <c r="AR10" s="8">
         <v>133</v>
       </c>
-      <c r="AS10" s="17">
+      <c r="AS10" s="8">
         <v>20</v>
       </c>
-      <c r="AT10" s="17">
+      <c r="AT10" s="8">
         <v>149</v>
       </c>
-      <c r="AU10" s="17">
+      <c r="AU10" s="8">
         <v>7</v>
       </c>
-      <c r="AV10" s="17">
+      <c r="AV10" s="8">
         <v>143</v>
       </c>
-      <c r="AW10" s="18">
+      <c r="AW10" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="16">
+    <row r="11" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="7">
         <v>7</v>
       </c>
-      <c r="C11" s="17">
-        <v>0</v>
-      </c>
-      <c r="D11" s="17">
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
         <v>11</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="8">
         <v>4</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="8">
         <v>4</v>
       </c>
-      <c r="G11" s="17">
-        <v>0</v>
-      </c>
-      <c r="H11" s="17">
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
         <v>6</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="9">
         <v>3</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="7">
         <v>5</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="8">
         <v>139</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="8">
         <v>14</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="8">
         <v>151</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="8">
         <v>4</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="8">
         <v>145</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="8">
         <v>12</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="Q11" s="9">
         <v>143</v>
       </c>
-      <c r="R11" s="22">
+      <c r="R11" s="10">
         <v>4</v>
       </c>
-      <c r="S11" s="23">
+      <c r="S11" s="11">
         <v>140</v>
       </c>
-      <c r="T11" s="17">
+      <c r="T11" s="8">
         <v>8</v>
       </c>
-      <c r="U11" s="17">
+      <c r="U11" s="8">
         <v>157</v>
       </c>
-      <c r="V11" s="17">
+      <c r="V11" s="8">
         <v>6</v>
       </c>
-      <c r="W11" s="17">
+      <c r="W11" s="8">
         <v>143</v>
       </c>
-      <c r="X11" s="17">
+      <c r="X11" s="8">
         <v>10</v>
       </c>
-      <c r="Y11" s="18">
+      <c r="Y11" s="9">
         <v>145</v>
       </c>
-      <c r="Z11" s="16">
+      <c r="Z11" s="7">
         <v>8</v>
       </c>
-      <c r="AA11" s="17">
+      <c r="AA11" s="8">
         <v>155</v>
       </c>
-      <c r="AB11" s="17">
+      <c r="AB11" s="8">
         <v>13</v>
       </c>
-      <c r="AC11" s="17">
+      <c r="AC11" s="8">
         <v>135</v>
       </c>
-      <c r="AD11" s="17">
+      <c r="AD11" s="8">
         <v>19</v>
       </c>
-      <c r="AE11" s="17">
+      <c r="AE11" s="8">
         <v>151</v>
       </c>
-      <c r="AF11" s="17">
+      <c r="AF11" s="8">
         <v>8</v>
       </c>
-      <c r="AG11" s="18">
+      <c r="AG11" s="9">
         <v>152</v>
       </c>
-      <c r="AH11" s="16">
+      <c r="AH11" s="7">
         <v>10</v>
       </c>
-      <c r="AI11" s="17">
+      <c r="AI11" s="8">
         <v>89</v>
       </c>
-      <c r="AJ11" s="17">
+      <c r="AJ11" s="8">
         <v>14</v>
       </c>
-      <c r="AK11" s="17">
+      <c r="AK11" s="8">
         <v>59</v>
       </c>
-      <c r="AL11" s="17">
+      <c r="AL11" s="8">
         <v>7</v>
       </c>
-      <c r="AM11" s="17">
+      <c r="AM11" s="8">
         <v>64</v>
       </c>
-      <c r="AN11" s="17">
+      <c r="AN11" s="8">
         <v>13</v>
       </c>
-      <c r="AO11" s="18">
+      <c r="AO11" s="9">
         <v>66</v>
       </c>
-      <c r="AP11" s="16">
+      <c r="AP11" s="7">
         <v>8</v>
       </c>
-      <c r="AQ11" s="17">
+      <c r="AQ11" s="8">
         <v>157</v>
       </c>
-      <c r="AR11" s="17">
+      <c r="AR11" s="8">
         <v>11</v>
       </c>
-      <c r="AS11" s="17">
+      <c r="AS11" s="8">
         <v>155</v>
       </c>
-      <c r="AT11" s="17">
+      <c r="AT11" s="8">
         <v>15</v>
       </c>
-      <c r="AU11" s="17">
+      <c r="AU11" s="8">
         <v>153</v>
       </c>
-      <c r="AV11" s="17">
+      <c r="AV11" s="8">
         <v>14</v>
       </c>
-      <c r="AW11" s="18">
+      <c r="AW11" s="9">
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="19">
+    <row r="12" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="20">
         <v>0.90697674418604601</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21">
         <v>0.81976744186046502</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20">
+      <c r="E12" s="21"/>
+      <c r="F12" s="21">
         <v>0.92441860465116199</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20">
+      <c r="G12" s="21"/>
+      <c r="H12" s="21">
         <v>0.90116279069767402</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="19">
+      <c r="I12" s="31"/>
+      <c r="J12" s="20">
         <v>0.94224924012157996</v>
       </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20">
+      <c r="K12" s="21"/>
+      <c r="L12" s="21">
         <v>0.91054313099041495</v>
       </c>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20">
+      <c r="M12" s="21"/>
+      <c r="N12" s="21">
         <v>0.95076923076923003</v>
       </c>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20">
+      <c r="O12" s="21"/>
+      <c r="P12" s="21">
         <v>0.91588785046728904</v>
       </c>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="24">
+      <c r="Q12" s="31"/>
+      <c r="R12" s="39">
         <v>0.97568389057750704</v>
       </c>
-      <c r="S12" s="25"/>
-      <c r="T12" s="20">
+      <c r="S12" s="23"/>
+      <c r="T12" s="21">
         <v>0.92651757188498396</v>
       </c>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20">
+      <c r="U12" s="21"/>
+      <c r="V12" s="21">
         <v>0.96615384615384603</v>
       </c>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20">
+      <c r="W12" s="21"/>
+      <c r="X12" s="21">
         <v>0.95015576323987505</v>
       </c>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="19">
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="20">
         <v>0.94528875379939203</v>
       </c>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20">
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21">
         <v>0.89137380191693205</v>
       </c>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20">
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21">
         <v>0.90461538461538404</v>
       </c>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="20">
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21">
         <v>0.92523364485981296</v>
       </c>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="19">
+      <c r="AG12" s="31"/>
+      <c r="AH12" s="20">
         <v>0.94029850746268595</v>
       </c>
-      <c r="AI12" s="20"/>
-      <c r="AJ12" s="20">
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21">
         <v>0.84836065573770403</v>
       </c>
-      <c r="AK12" s="20"/>
-      <c r="AL12" s="20">
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="21">
         <v>0.93801652892561904</v>
       </c>
-      <c r="AM12" s="20"/>
-      <c r="AN12" s="20">
+      <c r="AM12" s="21"/>
+      <c r="AN12" s="21">
         <v>0.90800000000000003</v>
       </c>
-      <c r="AO12" s="21"/>
-      <c r="AP12" s="19">
+      <c r="AO12" s="31"/>
+      <c r="AP12" s="20">
         <v>0.96048632218844898</v>
       </c>
-      <c r="AQ12" s="20"/>
-      <c r="AR12" s="20">
+      <c r="AQ12" s="21"/>
+      <c r="AR12" s="21">
         <v>0.90282131661442</v>
       </c>
-      <c r="AS12" s="20"/>
-      <c r="AT12" s="20">
+      <c r="AS12" s="21"/>
+      <c r="AT12" s="21">
         <v>0.93209876543209802</v>
       </c>
-      <c r="AU12" s="20"/>
-      <c r="AV12" s="20">
+      <c r="AU12" s="21"/>
+      <c r="AV12" s="21">
         <v>0.92024539877300604</v>
       </c>
-      <c r="AW12" s="21"/>
+      <c r="AW12" s="31"/>
     </row>
-    <row r="13" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="7">
         <v>165</v>
       </c>
-      <c r="C13" s="17">
-        <v>0</v>
-      </c>
-      <c r="D13" s="17">
+      <c r="C13" s="8">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
         <v>154</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="8">
         <v>3</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="8">
         <v>163</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="8">
         <v>5</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="8">
         <v>163</v>
       </c>
-      <c r="I13" s="18">
-        <v>0</v>
-      </c>
-      <c r="J13" s="29">
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
         <v>182</v>
       </c>
-      <c r="K13" s="30">
+      <c r="K13" s="14">
         <v>3</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="11">
         <v>143</v>
       </c>
-      <c r="M13" s="23">
+      <c r="M13" s="11">
         <v>5</v>
       </c>
-      <c r="N13" s="30">
+      <c r="N13" s="14">
         <v>173</v>
       </c>
-      <c r="O13" s="30">
+      <c r="O13" s="14">
         <v>3</v>
       </c>
-      <c r="P13" s="17">
+      <c r="P13" s="8">
         <v>165</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="Q13" s="9">
         <v>1</v>
       </c>
-      <c r="R13" s="16">
+      <c r="R13" s="7">
         <v>183</v>
       </c>
-      <c r="S13" s="17">
+      <c r="S13" s="8">
         <v>2</v>
       </c>
-      <c r="T13" s="23">
+      <c r="T13" s="11">
         <v>142</v>
       </c>
-      <c r="U13" s="23">
+      <c r="U13" s="11">
         <v>6</v>
       </c>
-      <c r="V13" s="33">
+      <c r="V13" s="15">
         <v>174</v>
       </c>
-      <c r="W13" s="33">
+      <c r="W13" s="15">
         <v>2</v>
       </c>
-      <c r="X13" s="33">
+      <c r="X13" s="15">
         <v>163</v>
       </c>
-      <c r="Y13" s="37">
+      <c r="Y13" s="17">
         <v>3</v>
       </c>
-      <c r="Z13" s="39">
+      <c r="Z13" s="18">
         <v>165</v>
       </c>
-      <c r="AA13" s="40">
+      <c r="AA13" s="19">
         <v>1</v>
       </c>
-      <c r="AB13" s="30">
+      <c r="AB13" s="14">
         <v>159</v>
       </c>
-      <c r="AC13" s="30">
+      <c r="AC13" s="14">
         <v>6</v>
       </c>
-      <c r="AD13" s="17">
+      <c r="AD13" s="8">
         <v>153</v>
       </c>
-      <c r="AE13" s="17">
+      <c r="AE13" s="8">
         <v>2</v>
       </c>
-      <c r="AF13" s="17">
+      <c r="AF13" s="8">
         <v>157</v>
       </c>
-      <c r="AG13" s="18">
+      <c r="AG13" s="9">
         <v>4</v>
       </c>
-      <c r="AH13" s="22">
+      <c r="AH13" s="10">
         <v>167</v>
       </c>
-      <c r="AI13" s="23">
+      <c r="AI13" s="11">
         <v>2</v>
       </c>
-      <c r="AJ13" s="17">
+      <c r="AJ13" s="8">
         <v>160</v>
       </c>
-      <c r="AK13" s="17">
+      <c r="AK13" s="8">
         <v>11</v>
       </c>
-      <c r="AL13" s="23">
+      <c r="AL13" s="11">
         <v>169</v>
       </c>
-      <c r="AM13" s="23">
+      <c r="AM13" s="11">
         <v>2</v>
       </c>
-      <c r="AN13" s="23">
+      <c r="AN13" s="11">
         <v>169</v>
       </c>
-      <c r="AO13" s="26">
+      <c r="AO13" s="12">
         <v>2</v>
       </c>
-      <c r="AP13" s="22">
+      <c r="AP13" s="10">
         <v>163</v>
       </c>
-      <c r="AQ13" s="23">
+      <c r="AQ13" s="11">
         <v>1</v>
       </c>
-      <c r="AR13" s="23">
+      <c r="AR13" s="11">
         <v>145</v>
       </c>
-      <c r="AS13" s="23">
+      <c r="AS13" s="11">
         <v>8</v>
       </c>
-      <c r="AT13" s="17">
+      <c r="AT13" s="8">
         <v>151</v>
       </c>
-      <c r="AU13" s="17">
+      <c r="AU13" s="8">
         <v>5</v>
       </c>
-      <c r="AV13" s="17">
+      <c r="AV13" s="8">
         <v>148</v>
       </c>
-      <c r="AW13" s="18">
+      <c r="AW13" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="16">
+    <row r="14" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="7">
         <v>7</v>
       </c>
-      <c r="C14" s="17">
-        <v>0</v>
-      </c>
-      <c r="D14" s="17">
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8">
         <v>14</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="8">
         <v>1</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="8">
         <v>4</v>
       </c>
-      <c r="G14" s="17">
-        <v>0</v>
-      </c>
-      <c r="H14" s="17">
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
         <v>9</v>
       </c>
-      <c r="I14" s="18">
-        <v>0</v>
-      </c>
-      <c r="J14" s="29">
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
         <v>2</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="14">
         <v>142</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="11">
         <v>13</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="11">
         <v>152</v>
       </c>
-      <c r="N14" s="30">
+      <c r="N14" s="14">
         <v>5</v>
       </c>
-      <c r="O14" s="30">
+      <c r="O14" s="14">
         <v>144</v>
       </c>
-      <c r="P14" s="17">
+      <c r="P14" s="8">
         <v>11</v>
       </c>
-      <c r="Q14" s="18">
+      <c r="Q14" s="9">
         <v>144</v>
       </c>
-      <c r="R14" s="16">
+      <c r="R14" s="7">
         <v>7</v>
       </c>
-      <c r="S14" s="17">
+      <c r="S14" s="8">
         <v>137</v>
       </c>
-      <c r="T14" s="23">
+      <c r="T14" s="11">
         <v>9</v>
       </c>
-      <c r="U14" s="23">
+      <c r="U14" s="11">
         <v>156</v>
       </c>
-      <c r="V14" s="33">
+      <c r="V14" s="15">
         <v>7</v>
       </c>
-      <c r="W14" s="33">
+      <c r="W14" s="15">
         <v>142</v>
       </c>
-      <c r="X14" s="33">
+      <c r="X14" s="15">
         <v>8</v>
       </c>
-      <c r="Y14" s="37">
+      <c r="Y14" s="17">
         <v>147</v>
       </c>
-      <c r="Z14" s="39">
+      <c r="Z14" s="18">
         <v>5</v>
       </c>
-      <c r="AA14" s="40">
+      <c r="AA14" s="19">
         <v>158</v>
       </c>
-      <c r="AB14" s="30">
+      <c r="AB14" s="14">
         <v>9</v>
       </c>
-      <c r="AC14" s="30">
+      <c r="AC14" s="14">
         <v>139</v>
       </c>
-      <c r="AD14" s="17">
+      <c r="AD14" s="8">
         <v>14</v>
       </c>
-      <c r="AE14" s="17">
+      <c r="AE14" s="8">
         <v>156</v>
       </c>
-      <c r="AF14" s="17">
+      <c r="AF14" s="8">
         <v>11</v>
       </c>
-      <c r="AG14" s="18">
+      <c r="AG14" s="9">
         <v>149</v>
       </c>
-      <c r="AH14" s="22">
+      <c r="AH14" s="10">
         <v>7</v>
       </c>
-      <c r="AI14" s="23">
+      <c r="AI14" s="11">
         <v>92</v>
       </c>
-      <c r="AJ14" s="17">
+      <c r="AJ14" s="8">
         <v>9</v>
       </c>
-      <c r="AK14" s="17">
+      <c r="AK14" s="8">
         <v>64</v>
       </c>
-      <c r="AL14" s="23">
+      <c r="AL14" s="11">
         <v>3</v>
       </c>
-      <c r="AM14" s="23">
+      <c r="AM14" s="11">
         <v>68</v>
       </c>
-      <c r="AN14" s="23">
+      <c r="AN14" s="11">
         <v>9</v>
       </c>
-      <c r="AO14" s="26">
+      <c r="AO14" s="12">
         <v>70</v>
       </c>
-      <c r="AP14" s="22">
+      <c r="AP14" s="10">
         <v>7</v>
       </c>
-      <c r="AQ14" s="23">
+      <c r="AQ14" s="11">
         <v>158</v>
       </c>
-      <c r="AR14" s="23">
+      <c r="AR14" s="11">
         <v>11</v>
       </c>
-      <c r="AS14" s="23">
+      <c r="AS14" s="11">
         <v>155</v>
       </c>
-      <c r="AT14" s="17">
+      <c r="AT14" s="8">
         <v>9</v>
       </c>
-      <c r="AU14" s="17">
+      <c r="AU14" s="8">
         <v>159</v>
       </c>
-      <c r="AV14" s="17">
+      <c r="AV14" s="8">
         <v>14</v>
       </c>
-      <c r="AW14" s="18">
+      <c r="AW14" s="9">
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:49" s="15" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="19">
+    <row r="15" spans="1:49" s="6" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="20">
         <v>0.95930232558139505</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21">
         <v>0.90116279069767402</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20">
+      <c r="E15" s="21"/>
+      <c r="F15" s="21">
         <v>0.94767441860465096</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20">
+      <c r="G15" s="21"/>
+      <c r="H15" s="21">
         <v>0.94767441860465096</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="31">
+      <c r="I15" s="31"/>
+      <c r="J15" s="37">
         <v>0.98480243161094205</v>
       </c>
-      <c r="K15" s="32"/>
-      <c r="L15" s="25">
+      <c r="K15" s="22"/>
+      <c r="L15" s="23">
         <v>0.94249201277955197</v>
       </c>
-      <c r="M15" s="25"/>
-      <c r="N15" s="32">
+      <c r="M15" s="23"/>
+      <c r="N15" s="22">
         <v>0.97538461538461496</v>
       </c>
-      <c r="O15" s="32"/>
-      <c r="P15" s="20">
+      <c r="O15" s="22"/>
+      <c r="P15" s="21">
         <v>0.96261682242990598</v>
       </c>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="19">
+      <c r="Q15" s="31"/>
+      <c r="R15" s="20">
         <v>0.97264437689969596</v>
       </c>
-      <c r="S15" s="20"/>
-      <c r="T15" s="25">
+      <c r="S15" s="21"/>
+      <c r="T15" s="23">
         <v>0.95207667731629397</v>
       </c>
-      <c r="U15" s="25"/>
-      <c r="V15" s="34">
+      <c r="U15" s="23"/>
+      <c r="V15" s="40">
         <v>0.97230769230769198</v>
       </c>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34">
+      <c r="W15" s="40"/>
+      <c r="X15" s="40">
         <v>0.96573208722741399</v>
       </c>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="41">
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="32">
         <v>0.98176291793312997</v>
       </c>
-      <c r="AA15" s="42"/>
-      <c r="AB15" s="32">
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="22">
         <v>0.95207667731629397</v>
       </c>
-      <c r="AC15" s="32"/>
-      <c r="AD15" s="20">
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="21">
         <v>0.95076923076923003</v>
       </c>
-      <c r="AE15" s="20"/>
-      <c r="AF15" s="20">
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21">
         <v>0.95327102803738295</v>
       </c>
-      <c r="AG15" s="21"/>
-      <c r="AH15" s="24">
+      <c r="AG15" s="31"/>
+      <c r="AH15" s="39">
         <v>0.96641791044776104</v>
       </c>
-      <c r="AI15" s="25"/>
-      <c r="AJ15" s="20">
+      <c r="AI15" s="23"/>
+      <c r="AJ15" s="21">
         <v>0.91803278688524503</v>
       </c>
-      <c r="AK15" s="20"/>
-      <c r="AL15" s="25">
+      <c r="AK15" s="21"/>
+      <c r="AL15" s="23">
         <v>0.97933884297520601</v>
       </c>
-      <c r="AM15" s="25"/>
-      <c r="AN15" s="25">
+      <c r="AM15" s="23"/>
+      <c r="AN15" s="23">
         <v>0.95599999999999996</v>
       </c>
-      <c r="AO15" s="27"/>
-      <c r="AP15" s="28">
+      <c r="AO15" s="24"/>
+      <c r="AP15" s="42">
         <v>0.97568389057750704</v>
       </c>
-      <c r="AQ15" s="25"/>
-      <c r="AR15" s="25">
+      <c r="AQ15" s="23"/>
+      <c r="AR15" s="23">
         <v>0.94043887147335403</v>
       </c>
-      <c r="AS15" s="25"/>
-      <c r="AT15" s="20">
+      <c r="AS15" s="23"/>
+      <c r="AT15" s="21">
         <v>0.95679012345679004</v>
       </c>
-      <c r="AU15" s="20"/>
-      <c r="AV15" s="20">
+      <c r="AU15" s="21"/>
+      <c r="AV15" s="21">
         <v>0.93558282208588905</v>
       </c>
-      <c r="AW15" s="21"/>
+      <c r="AW15" s="31"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="4">
         <v>165</v>
       </c>
       <c r="C16" s="3">
@@ -2481,10 +2481,10 @@
       <c r="H16" s="3">
         <v>163</v>
       </c>
-      <c r="I16" s="11">
-        <v>0</v>
-      </c>
-      <c r="J16" s="10">
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
         <v>135</v>
       </c>
       <c r="K16" s="3">
@@ -2505,10 +2505,10 @@
       <c r="P16" s="3">
         <v>105</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q16" s="5">
         <v>61</v>
       </c>
-      <c r="R16" s="10">
+      <c r="R16" s="4">
         <v>143</v>
       </c>
       <c r="S16" s="3">
@@ -2529,10 +2529,10 @@
       <c r="X16" s="3">
         <v>107</v>
       </c>
-      <c r="Y16" s="11">
+      <c r="Y16" s="5">
         <v>59</v>
       </c>
-      <c r="Z16" s="10">
+      <c r="Z16" s="4">
         <v>131</v>
       </c>
       <c r="AA16" s="3">
@@ -2553,10 +2553,10 @@
       <c r="AF16" s="3">
         <v>92</v>
       </c>
-      <c r="AG16" s="11">
+      <c r="AG16" s="5">
         <v>69</v>
       </c>
-      <c r="AH16" s="10">
+      <c r="AH16" s="4">
         <v>159</v>
       </c>
       <c r="AI16" s="3">
@@ -2577,10 +2577,10 @@
       <c r="AN16" s="3">
         <v>164</v>
       </c>
-      <c r="AO16" s="11">
+      <c r="AO16" s="5">
         <v>7</v>
       </c>
-      <c r="AP16" s="10">
+      <c r="AP16" s="4">
         <v>65</v>
       </c>
       <c r="AQ16" s="3">
@@ -2601,12 +2601,12 @@
       <c r="AV16" s="3">
         <v>65</v>
       </c>
-      <c r="AW16" s="11">
+      <c r="AW16" s="5">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="B17" s="10">
+      <c r="B17" s="4">
         <v>7</v>
       </c>
       <c r="C17" s="3">
@@ -2627,10 +2627,10 @@
       <c r="H17" s="3">
         <v>9</v>
       </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-      <c r="J17" s="10">
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
         <v>66</v>
       </c>
       <c r="K17" s="3">
@@ -2651,10 +2651,10 @@
       <c r="P17" s="3">
         <v>38</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="Q17" s="5">
         <v>117</v>
       </c>
-      <c r="R17" s="10">
+      <c r="R17" s="4">
         <v>56</v>
       </c>
       <c r="S17" s="3">
@@ -2675,10 +2675,10 @@
       <c r="X17" s="3">
         <v>40</v>
       </c>
-      <c r="Y17" s="11">
+      <c r="Y17" s="5">
         <v>115</v>
       </c>
-      <c r="Z17" s="10">
+      <c r="Z17" s="4">
         <v>75</v>
       </c>
       <c r="AA17" s="3">
@@ -2699,10 +2699,10 @@
       <c r="AF17" s="3">
         <v>30</v>
       </c>
-      <c r="AG17" s="11">
+      <c r="AG17" s="5">
         <v>130</v>
       </c>
-      <c r="AH17" s="10">
+      <c r="AH17" s="4">
         <v>66</v>
       </c>
       <c r="AI17" s="3">
@@ -2723,10 +2723,10 @@
       <c r="AN17" s="3">
         <v>64</v>
       </c>
-      <c r="AO17" s="11">
+      <c r="AO17" s="5">
         <v>15</v>
       </c>
-      <c r="AP17" s="10">
+      <c r="AP17" s="4">
         <v>43</v>
       </c>
       <c r="AQ17" s="3">
@@ -2747,506 +2747,506 @@
       <c r="AV17" s="3">
         <v>83</v>
       </c>
-      <c r="AW17" s="11">
+      <c r="AW17" s="5">
         <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="B18" s="8">
+      <c r="B18" s="28">
         <v>0.95930232558139505</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4">
+      <c r="C18" s="29"/>
+      <c r="D18" s="29">
         <v>0.91279069767441801</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4">
+      <c r="E18" s="29"/>
+      <c r="F18" s="29">
         <v>0.97674418604651103</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4">
+      <c r="G18" s="29"/>
+      <c r="H18" s="29">
         <v>0.94767441860465096</v>
       </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="8">
+      <c r="I18" s="30"/>
+      <c r="J18" s="28">
         <v>0.64741641337386002</v>
       </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4">
+      <c r="K18" s="29"/>
+      <c r="L18" s="29">
         <v>0.61661341853035101</v>
       </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4">
+      <c r="M18" s="29"/>
+      <c r="N18" s="29">
         <v>0.76307692307692299</v>
       </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4">
+      <c r="O18" s="29"/>
+      <c r="P18" s="29">
         <v>0.69158878504672805</v>
       </c>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="8">
+      <c r="Q18" s="30"/>
+      <c r="R18" s="28">
         <v>0.70212765957446799</v>
       </c>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4">
+      <c r="S18" s="29"/>
+      <c r="T18" s="29">
         <v>0.63578274760383302</v>
       </c>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4">
+      <c r="U18" s="29"/>
+      <c r="V18" s="29">
         <v>0.76615384615384596</v>
       </c>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4">
+      <c r="W18" s="29"/>
+      <c r="X18" s="29">
         <v>0.69158878504672805</v>
       </c>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="8">
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="28">
         <v>0.66565349544072905</v>
       </c>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4">
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29">
         <v>0.63897763578274702</v>
       </c>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4">
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29">
         <v>0.77538461538461501</v>
       </c>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4">
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="29">
         <v>0.69158878504672805</v>
       </c>
-      <c r="AG18" s="9"/>
-      <c r="AH18" s="8">
+      <c r="AG18" s="30"/>
+      <c r="AH18" s="28">
         <v>0.71641791044776104</v>
       </c>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4">
+      <c r="AI18" s="29"/>
+      <c r="AJ18" s="29">
         <v>0.70901639344262202</v>
       </c>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="4">
+      <c r="AK18" s="29"/>
+      <c r="AL18" s="29">
         <v>0.79752066115702402</v>
       </c>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="4">
+      <c r="AM18" s="29"/>
+      <c r="AN18" s="29">
         <v>0.71599999999999997</v>
       </c>
-      <c r="AO18" s="9"/>
-      <c r="AP18" s="8">
+      <c r="AO18" s="30"/>
+      <c r="AP18" s="28">
         <v>0.56838905775075899</v>
       </c>
-      <c r="AQ18" s="4"/>
-      <c r="AR18" s="4">
+      <c r="AQ18" s="29"/>
+      <c r="AR18" s="29">
         <v>0.583072100313479</v>
       </c>
-      <c r="AS18" s="4"/>
-      <c r="AT18" s="4">
+      <c r="AS18" s="29"/>
+      <c r="AT18" s="29">
         <v>0.57716049382715995</v>
       </c>
-      <c r="AU18" s="4"/>
-      <c r="AV18" s="4">
+      <c r="AU18" s="29"/>
+      <c r="AV18" s="29">
         <v>0.46932515337423297</v>
       </c>
-      <c r="AW18" s="9"/>
+      <c r="AW18" s="30"/>
     </row>
-    <row r="19" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="7">
         <v>165</v>
       </c>
-      <c r="C19" s="17">
-        <v>0</v>
-      </c>
-      <c r="D19" s="17">
+      <c r="C19" s="8">
+        <v>0</v>
+      </c>
+      <c r="D19" s="8">
         <v>157</v>
       </c>
-      <c r="E19" s="17">
-        <v>0</v>
-      </c>
-      <c r="F19" s="17">
+      <c r="E19" s="8">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
         <v>168</v>
       </c>
-      <c r="G19" s="17">
-        <v>0</v>
-      </c>
-      <c r="H19" s="17">
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8">
         <v>163</v>
       </c>
-      <c r="I19" s="18">
-        <v>0</v>
-      </c>
-      <c r="J19" s="16">
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
         <v>175</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="8">
         <v>10</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="8">
         <v>138</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="8">
         <v>10</v>
       </c>
-      <c r="N19" s="17">
+      <c r="N19" s="8">
         <v>168</v>
       </c>
-      <c r="O19" s="17">
+      <c r="O19" s="8">
         <v>8</v>
       </c>
-      <c r="P19" s="30">
+      <c r="P19" s="14">
         <v>159</v>
       </c>
-      <c r="Q19" s="35">
+      <c r="Q19" s="16">
         <v>7</v>
       </c>
-      <c r="R19" s="16">
+      <c r="R19" s="7">
         <v>179</v>
       </c>
-      <c r="S19" s="17">
+      <c r="S19" s="8">
         <v>15</v>
       </c>
-      <c r="T19" s="17">
+      <c r="T19" s="8">
         <v>135</v>
       </c>
-      <c r="U19" s="17">
+      <c r="U19" s="8">
         <v>13</v>
       </c>
-      <c r="V19" s="17">
+      <c r="V19" s="8">
         <v>166</v>
       </c>
-      <c r="W19" s="17">
+      <c r="W19" s="8">
         <v>10</v>
       </c>
-      <c r="X19" s="17">
+      <c r="X19" s="8">
         <v>154</v>
       </c>
-      <c r="Y19" s="18">
+      <c r="Y19" s="9">
         <v>12</v>
       </c>
-      <c r="Z19" s="16">
+      <c r="Z19" s="7">
         <v>153</v>
       </c>
-      <c r="AA19" s="17">
+      <c r="AA19" s="8">
         <v>13</v>
       </c>
-      <c r="AB19" s="17">
+      <c r="AB19" s="8">
         <v>158</v>
       </c>
-      <c r="AC19" s="17">
+      <c r="AC19" s="8">
         <v>7</v>
       </c>
-      <c r="AD19" s="23">
+      <c r="AD19" s="11">
         <v>151</v>
       </c>
-      <c r="AE19" s="23">
+      <c r="AE19" s="11">
         <v>4</v>
       </c>
-      <c r="AF19" s="17">
+      <c r="AF19" s="8">
         <v>156</v>
       </c>
-      <c r="AG19" s="18">
+      <c r="AG19" s="9">
         <v>5</v>
       </c>
-      <c r="AH19" s="16">
+      <c r="AH19" s="7">
         <v>166</v>
       </c>
-      <c r="AI19" s="17">
+      <c r="AI19" s="8">
         <v>3</v>
       </c>
-      <c r="AJ19" s="23">
+      <c r="AJ19" s="11">
         <v>167</v>
       </c>
-      <c r="AK19" s="23">
+      <c r="AK19" s="11">
         <v>4</v>
       </c>
-      <c r="AL19" s="17">
+      <c r="AL19" s="8">
         <v>168</v>
       </c>
-      <c r="AM19" s="17">
+      <c r="AM19" s="8">
         <v>3</v>
       </c>
-      <c r="AN19" s="17">
+      <c r="AN19" s="8">
         <v>167</v>
       </c>
-      <c r="AO19" s="18">
+      <c r="AO19" s="9">
         <v>4</v>
       </c>
-      <c r="AP19" s="16">
+      <c r="AP19" s="7">
         <v>157</v>
       </c>
-      <c r="AQ19" s="17">
+      <c r="AQ19" s="8">
         <v>7</v>
       </c>
-      <c r="AR19" s="17">
+      <c r="AR19" s="8">
         <v>139</v>
       </c>
-      <c r="AS19" s="17">
+      <c r="AS19" s="8">
         <v>14</v>
       </c>
-      <c r="AT19" s="17">
+      <c r="AT19" s="8">
         <v>138</v>
       </c>
-      <c r="AU19" s="17">
+      <c r="AU19" s="8">
         <v>18</v>
       </c>
-      <c r="AV19" s="17">
+      <c r="AV19" s="8">
         <v>145</v>
       </c>
-      <c r="AW19" s="18">
+      <c r="AW19" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="16">
+    <row r="20" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="7">
         <v>7</v>
       </c>
-      <c r="C20" s="17">
-        <v>0</v>
-      </c>
-      <c r="D20" s="17">
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
         <v>15</v>
       </c>
-      <c r="E20" s="17">
-        <v>0</v>
-      </c>
-      <c r="F20" s="17">
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
         <v>4</v>
       </c>
-      <c r="G20" s="17">
-        <v>0</v>
-      </c>
-      <c r="H20" s="17">
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8">
         <v>9</v>
       </c>
-      <c r="I20" s="18">
-        <v>0</v>
-      </c>
-      <c r="J20" s="16">
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
         <v>1</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="8">
         <v>143</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L20" s="8">
         <v>8</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M20" s="8">
         <v>157</v>
       </c>
-      <c r="N20" s="17">
+      <c r="N20" s="8">
         <v>3</v>
       </c>
-      <c r="O20" s="17">
+      <c r="O20" s="8">
         <v>146</v>
       </c>
-      <c r="P20" s="30">
+      <c r="P20" s="14">
         <v>3</v>
       </c>
-      <c r="Q20" s="35">
+      <c r="Q20" s="16">
         <v>152</v>
       </c>
-      <c r="R20" s="16">
+      <c r="R20" s="7">
         <v>19</v>
       </c>
-      <c r="S20" s="17">
+      <c r="S20" s="8">
         <v>125</v>
       </c>
-      <c r="T20" s="17">
+      <c r="T20" s="8">
         <v>13</v>
       </c>
-      <c r="U20" s="17">
+      <c r="U20" s="8">
         <v>152</v>
       </c>
-      <c r="V20" s="17">
+      <c r="V20" s="8">
         <v>7</v>
       </c>
-      <c r="W20" s="17">
+      <c r="W20" s="8">
         <v>142</v>
       </c>
-      <c r="X20" s="17">
+      <c r="X20" s="8">
         <v>3</v>
       </c>
-      <c r="Y20" s="18">
+      <c r="Y20" s="9">
         <v>152</v>
       </c>
-      <c r="Z20" s="16">
+      <c r="Z20" s="7">
         <v>4</v>
       </c>
-      <c r="AA20" s="17">
+      <c r="AA20" s="8">
         <v>159</v>
       </c>
-      <c r="AB20" s="17">
+      <c r="AB20" s="8">
         <v>30</v>
       </c>
-      <c r="AC20" s="17">
+      <c r="AC20" s="8">
         <v>118</v>
       </c>
-      <c r="AD20" s="23">
+      <c r="AD20" s="11">
         <v>7</v>
       </c>
-      <c r="AE20" s="23">
+      <c r="AE20" s="11">
         <v>163</v>
       </c>
-      <c r="AF20" s="17">
+      <c r="AF20" s="8">
         <v>10</v>
       </c>
-      <c r="AG20" s="18">
+      <c r="AG20" s="9">
         <v>150</v>
       </c>
-      <c r="AH20" s="16">
+      <c r="AH20" s="7">
         <v>7</v>
       </c>
-      <c r="AI20" s="17">
+      <c r="AI20" s="8">
         <v>92</v>
       </c>
-      <c r="AJ20" s="23">
+      <c r="AJ20" s="11">
         <v>12</v>
       </c>
-      <c r="AK20" s="23">
+      <c r="AK20" s="11">
         <v>61</v>
       </c>
-      <c r="AL20" s="17">
+      <c r="AL20" s="8">
         <v>7</v>
       </c>
-      <c r="AM20" s="17">
+      <c r="AM20" s="8">
         <v>64</v>
       </c>
-      <c r="AN20" s="17">
+      <c r="AN20" s="8">
         <v>9</v>
       </c>
-      <c r="AO20" s="18">
+      <c r="AO20" s="9">
         <v>70</v>
       </c>
-      <c r="AP20" s="16">
+      <c r="AP20" s="7">
         <v>13</v>
       </c>
-      <c r="AQ20" s="17">
+      <c r="AQ20" s="8">
         <v>152</v>
       </c>
-      <c r="AR20" s="17">
+      <c r="AR20" s="8">
         <v>30</v>
       </c>
-      <c r="AS20" s="17">
+      <c r="AS20" s="8">
         <v>136</v>
       </c>
-      <c r="AT20" s="17">
+      <c r="AT20" s="8">
         <v>8</v>
       </c>
-      <c r="AU20" s="17">
+      <c r="AU20" s="8">
         <v>160</v>
       </c>
-      <c r="AV20" s="17">
+      <c r="AV20" s="8">
         <v>27</v>
       </c>
-      <c r="AW20" s="18">
+      <c r="AW20" s="9">
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="19">
+    <row r="21" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="20">
         <v>0.95930232558139505</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20">
+      <c r="C21" s="21"/>
+      <c r="D21" s="21">
         <v>0.91279069767441801</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20">
+      <c r="E21" s="21"/>
+      <c r="F21" s="21">
         <v>0.97674418604651103</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20">
+      <c r="G21" s="21"/>
+      <c r="H21" s="21">
         <v>0.94767441860465096</v>
       </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="19">
+      <c r="I21" s="31"/>
+      <c r="J21" s="20">
         <v>0.96656534954407203</v>
       </c>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20">
+      <c r="K21" s="21"/>
+      <c r="L21" s="21">
         <v>0.94249201277955197</v>
       </c>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20">
+      <c r="M21" s="21"/>
+      <c r="N21" s="21">
         <v>0.96615384615384603</v>
       </c>
-      <c r="O21" s="20"/>
-      <c r="P21" s="32">
+      <c r="O21" s="21"/>
+      <c r="P21" s="22">
         <v>0.968847352024922</v>
       </c>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="19">
+      <c r="Q21" s="38"/>
+      <c r="R21" s="20">
         <v>0.896656534954407</v>
       </c>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20">
+      <c r="S21" s="21"/>
+      <c r="T21" s="21">
         <v>0.91693290734824195</v>
       </c>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20">
+      <c r="U21" s="21"/>
+      <c r="V21" s="21">
         <v>0.94769230769230695</v>
       </c>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20">
+      <c r="W21" s="21"/>
+      <c r="X21" s="21">
         <v>0.95327102803738295</v>
       </c>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="19">
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="20">
         <v>0.948328267477203</v>
       </c>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20">
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21">
         <v>0.88178913738019105</v>
       </c>
-      <c r="AC21" s="20"/>
-      <c r="AD21" s="25">
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="23">
         <v>0.96615384615384603</v>
       </c>
-      <c r="AE21" s="25"/>
-      <c r="AF21" s="20">
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="21">
         <v>0.95327102803738295</v>
       </c>
-      <c r="AG21" s="21"/>
-      <c r="AH21" s="19">
+      <c r="AG21" s="31"/>
+      <c r="AH21" s="20">
         <v>0.962686567164179</v>
       </c>
-      <c r="AI21" s="20"/>
-      <c r="AJ21" s="25">
+      <c r="AI21" s="21"/>
+      <c r="AJ21" s="23">
         <v>0.93442622950819598</v>
       </c>
-      <c r="AK21" s="25"/>
-      <c r="AL21" s="20">
+      <c r="AK21" s="23"/>
+      <c r="AL21" s="21">
         <v>0.95867768595041303</v>
       </c>
-      <c r="AM21" s="20"/>
-      <c r="AN21" s="20">
+      <c r="AM21" s="21"/>
+      <c r="AN21" s="21">
         <v>0.94799999999999995</v>
       </c>
-      <c r="AO21" s="21"/>
-      <c r="AP21" s="19">
+      <c r="AO21" s="31"/>
+      <c r="AP21" s="20">
         <v>0.93920972644376899</v>
       </c>
-      <c r="AQ21" s="20"/>
-      <c r="AR21" s="20">
+      <c r="AQ21" s="21"/>
+      <c r="AR21" s="21">
         <v>0.86206896551724099</v>
       </c>
-      <c r="AS21" s="20"/>
-      <c r="AT21" s="20">
+      <c r="AS21" s="21"/>
+      <c r="AT21" s="21">
         <v>0.91975308641975295</v>
       </c>
-      <c r="AU21" s="20"/>
-      <c r="AV21" s="20">
+      <c r="AU21" s="21"/>
+      <c r="AV21" s="21">
         <v>0.88650306748466201</v>
       </c>
-      <c r="AW21" s="21"/>
+      <c r="AW21" s="31"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="4">
         <v>145</v>
       </c>
       <c r="C22" s="3">
@@ -3267,10 +3267,10 @@
       <c r="H22" s="3">
         <v>144</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="5">
         <v>19</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="4">
         <v>42</v>
       </c>
       <c r="K22" s="3">
@@ -3291,10 +3291,10 @@
       <c r="P22" s="3">
         <v>58</v>
       </c>
-      <c r="Q22" s="11">
+      <c r="Q22" s="5">
         <v>108</v>
       </c>
-      <c r="R22" s="10">
+      <c r="R22" s="4">
         <v>158</v>
       </c>
       <c r="S22" s="3">
@@ -3315,10 +3315,10 @@
       <c r="X22" s="3">
         <v>68</v>
       </c>
-      <c r="Y22" s="11">
+      <c r="Y22" s="5">
         <v>98</v>
       </c>
-      <c r="Z22" s="10">
+      <c r="Z22" s="4">
         <v>146</v>
       </c>
       <c r="AA22" s="3">
@@ -3339,10 +3339,10 @@
       <c r="AF22" s="3">
         <v>146</v>
       </c>
-      <c r="AG22" s="11">
+      <c r="AG22" s="5">
         <v>15</v>
       </c>
-      <c r="AH22" s="10">
+      <c r="AH22" s="4">
         <v>153</v>
       </c>
       <c r="AI22" s="3">
@@ -3363,10 +3363,10 @@
       <c r="AN22" s="3">
         <v>159</v>
       </c>
-      <c r="AO22" s="11">
+      <c r="AO22" s="5">
         <v>12</v>
       </c>
-      <c r="AP22" s="10">
+      <c r="AP22" s="4">
         <v>85</v>
       </c>
       <c r="AQ22" s="3">
@@ -3387,12 +3387,12 @@
       <c r="AV22" s="3">
         <v>103</v>
       </c>
-      <c r="AW22" s="11">
+      <c r="AW22" s="5">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="B23" s="10">
+      <c r="B23" s="4">
         <v>6</v>
       </c>
       <c r="C23" s="3">
@@ -3413,10 +3413,10 @@
       <c r="H23" s="3">
         <v>6</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="5">
         <v>3</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="4">
         <v>0</v>
       </c>
       <c r="K23" s="3">
@@ -3437,10 +3437,10 @@
       <c r="P23" s="3">
         <v>3</v>
       </c>
-      <c r="Q23" s="11">
+      <c r="Q23" s="5">
         <v>152</v>
       </c>
-      <c r="R23" s="10">
+      <c r="R23" s="4">
         <v>90</v>
       </c>
       <c r="S23" s="3">
@@ -3461,10 +3461,10 @@
       <c r="X23" s="3">
         <v>20</v>
       </c>
-      <c r="Y23" s="11">
+      <c r="Y23" s="5">
         <v>135</v>
       </c>
-      <c r="Z23" s="10">
+      <c r="Z23" s="4">
         <v>89</v>
       </c>
       <c r="AA23" s="3">
@@ -3485,10 +3485,10 @@
       <c r="AF23" s="3">
         <v>100</v>
       </c>
-      <c r="AG23" s="11">
+      <c r="AG23" s="5">
         <v>60</v>
       </c>
-      <c r="AH23" s="10">
+      <c r="AH23" s="4">
         <v>56</v>
       </c>
       <c r="AI23" s="3">
@@ -3509,10 +3509,10 @@
       <c r="AN23" s="3">
         <v>47</v>
       </c>
-      <c r="AO23" s="11">
+      <c r="AO23" s="5">
         <v>32</v>
       </c>
-      <c r="AP23" s="10">
+      <c r="AP23" s="4">
         <v>33</v>
       </c>
       <c r="AQ23" s="3">
@@ -3533,506 +3533,506 @@
       <c r="AV23" s="3">
         <v>98</v>
       </c>
-      <c r="AW23" s="11">
+      <c r="AW23" s="5">
         <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="B24" s="8">
+      <c r="B24" s="28">
         <v>0.84883720930232498</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4">
+      <c r="C24" s="29"/>
+      <c r="D24" s="29">
         <v>0.80813953488372003</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4">
+      <c r="E24" s="29"/>
+      <c r="F24" s="29">
         <v>0.104651162790697</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4">
+      <c r="G24" s="29"/>
+      <c r="H24" s="29">
         <v>0.85465116279069697</v>
       </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="8">
+      <c r="I24" s="30"/>
+      <c r="J24" s="28">
         <v>0.56534954407294802</v>
       </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4">
+      <c r="K24" s="29"/>
+      <c r="L24" s="29">
         <v>0.61022364217252401</v>
       </c>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4">
+      <c r="M24" s="29"/>
+      <c r="N24" s="29">
         <v>0.54461538461538395</v>
       </c>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4">
+      <c r="O24" s="29"/>
+      <c r="P24" s="29">
         <v>0.65420560747663503</v>
       </c>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="8">
+      <c r="Q24" s="30"/>
+      <c r="R24" s="28">
         <v>0.64437689969604794</v>
       </c>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4">
+      <c r="S24" s="29"/>
+      <c r="T24" s="29">
         <v>0.62619808306709202</v>
       </c>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4">
+      <c r="U24" s="29"/>
+      <c r="V24" s="29">
         <v>0.56000000000000005</v>
       </c>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4">
+      <c r="W24" s="29"/>
+      <c r="X24" s="29">
         <v>0.63239875389408096</v>
       </c>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="8">
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="28">
         <v>0.66869300911854102</v>
       </c>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4">
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29">
         <v>0.66134185303514303</v>
       </c>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4">
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29">
         <v>0.76</v>
       </c>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="4">
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29">
         <v>0.64174454828660399</v>
       </c>
-      <c r="AG24" s="9"/>
-      <c r="AH24" s="8">
+      <c r="AG24" s="30"/>
+      <c r="AH24" s="28">
         <v>0.731343283582089</v>
       </c>
-      <c r="AI24" s="4"/>
-      <c r="AJ24" s="4">
+      <c r="AI24" s="29"/>
+      <c r="AJ24" s="29">
         <v>0.65573770491803196</v>
       </c>
-      <c r="AK24" s="4"/>
-      <c r="AL24" s="4">
+      <c r="AK24" s="29"/>
+      <c r="AL24" s="29">
         <v>0.838842975206611</v>
       </c>
-      <c r="AM24" s="4"/>
-      <c r="AN24" s="4">
+      <c r="AM24" s="29"/>
+      <c r="AN24" s="29">
         <v>0.76400000000000001</v>
       </c>
-      <c r="AO24" s="9"/>
-      <c r="AP24" s="8">
+      <c r="AO24" s="30"/>
+      <c r="AP24" s="28">
         <v>0.659574468085106</v>
       </c>
-      <c r="AQ24" s="4"/>
-      <c r="AR24" s="4">
+      <c r="AQ24" s="29"/>
+      <c r="AR24" s="29">
         <v>0.59561128526645701</v>
       </c>
-      <c r="AS24" s="4"/>
-      <c r="AT24" s="4">
+      <c r="AS24" s="29"/>
+      <c r="AT24" s="29">
         <v>0.62654320987654299</v>
       </c>
-      <c r="AU24" s="4"/>
-      <c r="AV24" s="4">
+      <c r="AU24" s="29"/>
+      <c r="AV24" s="29">
         <v>0.53987730061349604</v>
       </c>
-      <c r="AW24" s="9"/>
+      <c r="AW24" s="30"/>
     </row>
-    <row r="25" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="15" t="s">
+    <row r="25" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="7">
         <v>164</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="8">
         <v>1</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="8">
         <v>150</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="8">
         <v>7</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="8">
         <v>166</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="8">
         <v>2</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="8">
         <v>162</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="9">
         <v>1</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J25" s="7">
         <v>181</v>
       </c>
-      <c r="K25" s="17">
+      <c r="K25" s="8">
         <v>4</v>
       </c>
-      <c r="L25" s="17">
+      <c r="L25" s="8">
         <v>141</v>
       </c>
-      <c r="M25" s="17">
+      <c r="M25" s="8">
         <v>7</v>
       </c>
-      <c r="N25" s="17">
+      <c r="N25" s="8">
         <v>172</v>
       </c>
-      <c r="O25" s="17">
+      <c r="O25" s="8">
         <v>4</v>
       </c>
-      <c r="P25" s="17">
+      <c r="P25" s="8">
         <v>164</v>
       </c>
-      <c r="Q25" s="18">
+      <c r="Q25" s="9">
         <v>2</v>
       </c>
-      <c r="R25" s="22">
+      <c r="R25" s="10">
         <v>183</v>
       </c>
-      <c r="S25" s="23">
+      <c r="S25" s="11">
         <v>2</v>
       </c>
-      <c r="T25" s="17">
+      <c r="T25" s="8">
         <v>142</v>
       </c>
-      <c r="U25" s="17">
+      <c r="U25" s="8">
         <v>6</v>
       </c>
-      <c r="V25" s="17">
+      <c r="V25" s="8">
         <v>176</v>
       </c>
-      <c r="W25" s="17">
+      <c r="W25" s="8">
         <v>6</v>
       </c>
-      <c r="X25" s="33">
+      <c r="X25" s="15">
         <v>163</v>
       </c>
-      <c r="Y25" s="37">
+      <c r="Y25" s="17">
         <v>3</v>
       </c>
-      <c r="Z25" s="16">
+      <c r="Z25" s="7">
         <v>161</v>
       </c>
-      <c r="AA25" s="17">
+      <c r="AA25" s="8">
         <v>5</v>
       </c>
-      <c r="AB25" s="30">
+      <c r="AB25" s="14">
         <v>159</v>
       </c>
-      <c r="AC25" s="30">
+      <c r="AC25" s="14">
         <v>6</v>
       </c>
-      <c r="AD25" s="17">
+      <c r="AD25" s="8">
         <v>153</v>
       </c>
-      <c r="AE25" s="17">
+      <c r="AE25" s="8">
         <v>2</v>
       </c>
-      <c r="AF25" s="23">
+      <c r="AF25" s="11">
         <v>158</v>
       </c>
-      <c r="AG25" s="26">
+      <c r="AG25" s="12">
         <v>3</v>
       </c>
-      <c r="AH25" s="16">
+      <c r="AH25" s="7">
         <v>164</v>
       </c>
-      <c r="AI25" s="17">
+      <c r="AI25" s="8">
         <v>5</v>
       </c>
-      <c r="AJ25" s="17">
+      <c r="AJ25" s="8">
         <v>160</v>
       </c>
-      <c r="AK25" s="17">
+      <c r="AK25" s="8">
         <v>11</v>
       </c>
-      <c r="AL25" s="17">
+      <c r="AL25" s="8">
         <v>166</v>
       </c>
-      <c r="AM25" s="17">
+      <c r="AM25" s="8">
         <v>5</v>
       </c>
-      <c r="AN25" s="17">
+      <c r="AN25" s="8">
         <v>167</v>
       </c>
-      <c r="AO25" s="18">
+      <c r="AO25" s="9">
         <v>4</v>
       </c>
-      <c r="AP25" s="16">
+      <c r="AP25" s="7">
         <v>159</v>
       </c>
-      <c r="AQ25" s="17">
+      <c r="AQ25" s="8">
         <v>5</v>
       </c>
-      <c r="AR25" s="17">
+      <c r="AR25" s="8">
         <v>142</v>
       </c>
-      <c r="AS25" s="17">
+      <c r="AS25" s="8">
         <v>11</v>
       </c>
-      <c r="AT25" s="23">
+      <c r="AT25" s="11">
         <v>154</v>
       </c>
-      <c r="AU25" s="23">
+      <c r="AU25" s="11">
         <v>2</v>
       </c>
-      <c r="AV25" s="23">
+      <c r="AV25" s="11">
         <v>151</v>
       </c>
-      <c r="AW25" s="26">
+      <c r="AW25" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="16">
+    <row r="26" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="7">
         <v>7</v>
       </c>
-      <c r="C26" s="17">
-        <v>0</v>
-      </c>
-      <c r="D26" s="17">
+      <c r="C26" s="8">
+        <v>0</v>
+      </c>
+      <c r="D26" s="8">
         <v>13</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="8">
         <v>2</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="8">
         <v>4</v>
       </c>
-      <c r="G26" s="17">
-        <v>0</v>
-      </c>
-      <c r="H26" s="17">
+      <c r="G26" s="8">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8">
         <v>8</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="9">
         <v>1</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26" s="7">
         <v>5</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K26" s="8">
         <v>139</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L26" s="8">
         <v>12</v>
       </c>
-      <c r="M26" s="17">
+      <c r="M26" s="8">
         <v>153</v>
       </c>
-      <c r="N26" s="17">
+      <c r="N26" s="8">
         <v>6</v>
       </c>
-      <c r="O26" s="17">
+      <c r="O26" s="8">
         <v>143</v>
       </c>
-      <c r="P26" s="17">
+      <c r="P26" s="8">
         <v>11</v>
       </c>
-      <c r="Q26" s="18">
+      <c r="Q26" s="9">
         <v>144</v>
       </c>
-      <c r="R26" s="22">
+      <c r="R26" s="10">
         <v>6</v>
       </c>
-      <c r="S26" s="23">
+      <c r="S26" s="11">
         <v>138</v>
       </c>
-      <c r="T26" s="17">
+      <c r="T26" s="8">
         <v>11</v>
       </c>
-      <c r="U26" s="17">
+      <c r="U26" s="8">
         <v>154</v>
       </c>
-      <c r="V26" s="17">
+      <c r="V26" s="8">
         <v>6</v>
       </c>
-      <c r="W26" s="17">
+      <c r="W26" s="8">
         <v>143</v>
       </c>
-      <c r="X26" s="33">
+      <c r="X26" s="15">
         <v>8</v>
       </c>
-      <c r="Y26" s="37">
+      <c r="Y26" s="17">
         <v>147</v>
       </c>
-      <c r="Z26" s="16">
+      <c r="Z26" s="7">
         <v>6</v>
       </c>
-      <c r="AA26" s="17">
+      <c r="AA26" s="8">
         <v>157</v>
       </c>
-      <c r="AB26" s="30">
+      <c r="AB26" s="14">
         <v>9</v>
       </c>
-      <c r="AC26" s="30">
+      <c r="AC26" s="14">
         <v>139</v>
       </c>
-      <c r="AD26" s="17">
+      <c r="AD26" s="8">
         <v>11</v>
       </c>
-      <c r="AE26" s="17">
+      <c r="AE26" s="8">
         <v>159</v>
       </c>
-      <c r="AF26" s="23">
+      <c r="AF26" s="11">
         <v>10</v>
       </c>
-      <c r="AG26" s="26">
+      <c r="AG26" s="12">
         <v>150</v>
       </c>
-      <c r="AH26" s="16">
+      <c r="AH26" s="7">
         <v>8</v>
       </c>
-      <c r="AI26" s="17">
+      <c r="AI26" s="8">
         <v>91</v>
       </c>
-      <c r="AJ26" s="17">
+      <c r="AJ26" s="8">
         <v>13</v>
       </c>
-      <c r="AK26" s="17">
+      <c r="AK26" s="8">
         <v>60</v>
       </c>
-      <c r="AL26" s="17">
+      <c r="AL26" s="8">
         <v>2</v>
       </c>
-      <c r="AM26" s="17">
+      <c r="AM26" s="8">
         <v>69</v>
       </c>
-      <c r="AN26" s="17">
+      <c r="AN26" s="8">
         <v>9</v>
       </c>
-      <c r="AO26" s="18">
+      <c r="AO26" s="9">
         <v>70</v>
       </c>
-      <c r="AP26" s="16">
+      <c r="AP26" s="7">
         <v>7</v>
       </c>
-      <c r="AQ26" s="17">
+      <c r="AQ26" s="8">
         <v>158</v>
       </c>
-      <c r="AR26" s="17">
+      <c r="AR26" s="8">
         <v>10</v>
       </c>
-      <c r="AS26" s="17">
+      <c r="AS26" s="8">
         <v>156</v>
       </c>
-      <c r="AT26" s="23">
+      <c r="AT26" s="11">
         <v>9</v>
       </c>
-      <c r="AU26" s="23">
+      <c r="AU26" s="11">
         <v>159</v>
       </c>
-      <c r="AV26" s="23">
+      <c r="AV26" s="11">
         <v>12</v>
       </c>
-      <c r="AW26" s="26">
+      <c r="AW26" s="12">
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:49" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="19">
+    <row r="27" spans="1:49" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="20">
         <v>0.95348837209302295</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20">
+      <c r="C27" s="21"/>
+      <c r="D27" s="21">
         <v>0.88372093023255804</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20">
+      <c r="E27" s="21"/>
+      <c r="F27" s="21">
         <v>0.96511627906976705</v>
       </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20">
+      <c r="G27" s="21"/>
+      <c r="H27" s="21">
         <v>0.94767441860465096</v>
       </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="19">
+      <c r="I27" s="31"/>
+      <c r="J27" s="20">
         <v>0.97264437689969596</v>
       </c>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20">
+      <c r="K27" s="21"/>
+      <c r="L27" s="21">
         <v>0.93929712460063897</v>
       </c>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20">
+      <c r="M27" s="21"/>
+      <c r="N27" s="21">
         <v>0.96923076923076901</v>
       </c>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20">
+      <c r="O27" s="21"/>
+      <c r="P27" s="21">
         <v>0.95950155763239797</v>
       </c>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="24">
+      <c r="Q27" s="31"/>
+      <c r="R27" s="39">
         <v>0.97568389057750704</v>
       </c>
-      <c r="S27" s="25"/>
-      <c r="T27" s="20">
+      <c r="S27" s="23"/>
+      <c r="T27" s="21">
         <v>0.94568690095846597</v>
       </c>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20">
+      <c r="U27" s="21"/>
+      <c r="V27" s="21">
         <v>0.96307692307692305</v>
       </c>
-      <c r="W27" s="20"/>
-      <c r="X27" s="34">
+      <c r="W27" s="21"/>
+      <c r="X27" s="40">
         <v>0.96573208722741399</v>
       </c>
-      <c r="Y27" s="38"/>
-      <c r="Z27" s="19">
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="20">
         <v>0.96656534954407203</v>
       </c>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="32">
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="22">
         <v>0.95207667731629397</v>
       </c>
-      <c r="AC27" s="32"/>
-      <c r="AD27" s="20">
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="21">
         <v>0.96</v>
       </c>
-      <c r="AE27" s="20"/>
-      <c r="AF27" s="25">
+      <c r="AE27" s="21"/>
+      <c r="AF27" s="23">
         <v>0.95950155763239797</v>
       </c>
-      <c r="AG27" s="27"/>
-      <c r="AH27" s="19">
+      <c r="AG27" s="24"/>
+      <c r="AH27" s="20">
         <v>0.95149253731343197</v>
       </c>
-      <c r="AI27" s="20"/>
-      <c r="AJ27" s="20">
+      <c r="AI27" s="21"/>
+      <c r="AJ27" s="21">
         <v>0.90163934426229497</v>
       </c>
-      <c r="AK27" s="20"/>
-      <c r="AL27" s="20">
+      <c r="AK27" s="21"/>
+      <c r="AL27" s="21">
         <v>0.97107438016528902</v>
       </c>
-      <c r="AM27" s="20"/>
-      <c r="AN27" s="20">
+      <c r="AM27" s="21"/>
+      <c r="AN27" s="21">
         <v>0.94799999999999995</v>
       </c>
-      <c r="AO27" s="21"/>
-      <c r="AP27" s="19">
+      <c r="AO27" s="31"/>
+      <c r="AP27" s="20">
         <v>0.96352583586626095</v>
       </c>
-      <c r="AQ27" s="20"/>
-      <c r="AR27" s="20">
+      <c r="AQ27" s="21"/>
+      <c r="AR27" s="21">
         <v>0.93416927899686497</v>
       </c>
-      <c r="AS27" s="20"/>
-      <c r="AT27" s="25">
+      <c r="AS27" s="21"/>
+      <c r="AT27" s="23">
         <v>0.96604938271604901</v>
       </c>
-      <c r="AU27" s="25"/>
-      <c r="AV27" s="25">
+      <c r="AU27" s="23"/>
+      <c r="AV27" s="23">
         <v>0.95092024539877296</v>
       </c>
-      <c r="AW27" s="27"/>
+      <c r="AW27" s="24"/>
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="4">
         <v>165</v>
       </c>
       <c r="C28" s="3">
@@ -4053,10 +4053,10 @@
       <c r="H28" s="3">
         <v>163</v>
       </c>
-      <c r="I28" s="11">
-        <v>0</v>
-      </c>
-      <c r="J28" s="10">
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
         <v>46</v>
       </c>
       <c r="K28" s="3">
@@ -4077,10 +4077,10 @@
       <c r="P28" s="3">
         <v>150</v>
       </c>
-      <c r="Q28" s="11">
+      <c r="Q28" s="5">
         <v>16</v>
       </c>
-      <c r="R28" s="10">
+      <c r="R28" s="4">
         <v>161</v>
       </c>
       <c r="S28" s="3">
@@ -4101,10 +4101,10 @@
       <c r="X28" s="3">
         <v>6</v>
       </c>
-      <c r="Y28" s="11">
+      <c r="Y28" s="5">
         <v>160</v>
       </c>
-      <c r="Z28" s="10">
+      <c r="Z28" s="4">
         <v>166</v>
       </c>
       <c r="AA28" s="3">
@@ -4125,10 +4125,10 @@
       <c r="AF28" s="3">
         <v>55</v>
       </c>
-      <c r="AG28" s="11">
+      <c r="AG28" s="5">
         <v>106</v>
       </c>
-      <c r="AH28" s="10">
+      <c r="AH28" s="4">
         <v>132</v>
       </c>
       <c r="AI28" s="3">
@@ -4149,10 +4149,10 @@
       <c r="AN28" s="3">
         <v>168</v>
       </c>
-      <c r="AO28" s="11">
+      <c r="AO28" s="5">
         <v>3</v>
       </c>
-      <c r="AP28" s="10">
+      <c r="AP28" s="4">
         <v>48</v>
       </c>
       <c r="AQ28" s="3">
@@ -4173,12 +4173,12 @@
       <c r="AV28" s="3">
         <v>0</v>
       </c>
-      <c r="AW28" s="11">
+      <c r="AW28" s="5">
         <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="B29" s="10">
+      <c r="B29" s="4">
         <v>7</v>
       </c>
       <c r="C29" s="3">
@@ -4199,10 +4199,10 @@
       <c r="H29" s="3">
         <v>9</v>
       </c>
-      <c r="I29" s="11">
-        <v>0</v>
-      </c>
-      <c r="J29" s="10">
+      <c r="I29" s="5">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
         <v>9</v>
       </c>
       <c r="K29" s="3">
@@ -4223,10 +4223,10 @@
       <c r="P29" s="3">
         <v>21</v>
       </c>
-      <c r="Q29" s="11">
+      <c r="Q29" s="5">
         <v>134</v>
       </c>
-      <c r="R29" s="10">
+      <c r="R29" s="4">
         <v>44</v>
       </c>
       <c r="S29" s="3">
@@ -4247,10 +4247,10 @@
       <c r="X29" s="3">
         <v>1</v>
       </c>
-      <c r="Y29" s="11">
+      <c r="Y29" s="5">
         <v>154</v>
       </c>
-      <c r="Z29" s="10">
+      <c r="Z29" s="4">
         <v>163</v>
       </c>
       <c r="AA29" s="3">
@@ -4271,10 +4271,10 @@
       <c r="AF29" s="3">
         <v>12</v>
       </c>
-      <c r="AG29" s="11">
+      <c r="AG29" s="5">
         <v>148</v>
       </c>
-      <c r="AH29" s="10">
+      <c r="AH29" s="4">
         <v>30</v>
       </c>
       <c r="AI29" s="3">
@@ -4295,10 +4295,10 @@
       <c r="AN29" s="3">
         <v>77</v>
       </c>
-      <c r="AO29" s="11">
+      <c r="AO29" s="5">
         <v>2</v>
       </c>
-      <c r="AP29" s="10">
+      <c r="AP29" s="4">
         <v>2</v>
       </c>
       <c r="AQ29" s="3">
@@ -4319,307 +4319,135 @@
       <c r="AV29" s="3">
         <v>0</v>
       </c>
-      <c r="AW29" s="11">
+      <c r="AW29" s="5">
         <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="12">
+      <c r="B30" s="25">
         <v>0.95930232558139505</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13">
+      <c r="C30" s="26"/>
+      <c r="D30" s="26">
         <v>0.91279069767441801</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13">
+      <c r="E30" s="26"/>
+      <c r="F30" s="26">
         <v>0.97674418604651103</v>
       </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13">
+      <c r="G30" s="26"/>
+      <c r="H30" s="26">
         <v>0.94767441860465096</v>
       </c>
-      <c r="I30" s="14"/>
-      <c r="J30" s="12">
+      <c r="I30" s="27"/>
+      <c r="J30" s="25">
         <v>0.55015197568388996</v>
       </c>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13">
+      <c r="K30" s="26"/>
+      <c r="L30" s="26">
         <v>0.81150159744408901</v>
       </c>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13">
+      <c r="M30" s="26"/>
+      <c r="N30" s="26">
         <v>0.87692307692307603</v>
       </c>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13">
+      <c r="O30" s="26"/>
+      <c r="P30" s="26">
         <v>0.88473520249221105</v>
       </c>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="12">
+      <c r="Q30" s="27"/>
+      <c r="R30" s="25">
         <v>0.79331306990881401</v>
       </c>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13">
+      <c r="S30" s="26"/>
+      <c r="T30" s="26">
         <v>0.47284345047923299</v>
       </c>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13">
+      <c r="U30" s="26"/>
+      <c r="V30" s="26">
         <v>0.45846153846153798</v>
       </c>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13">
+      <c r="W30" s="26"/>
+      <c r="X30" s="26">
         <v>0.49844236760124599</v>
       </c>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="12">
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="25">
         <v>0.50455927051671701</v>
       </c>
-      <c r="AA30" s="13"/>
-      <c r="AB30" s="13">
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="26">
         <v>0.64536741214057503</v>
       </c>
-      <c r="AC30" s="13"/>
-      <c r="AD30" s="13">
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="26">
         <v>0.64923076923076894</v>
       </c>
-      <c r="AE30" s="13"/>
-      <c r="AF30" s="13">
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="26">
         <v>0.63239875389408096</v>
       </c>
-      <c r="AG30" s="14"/>
-      <c r="AH30" s="12">
+      <c r="AG30" s="27"/>
+      <c r="AH30" s="25">
         <v>0.75</v>
       </c>
-      <c r="AI30" s="13"/>
-      <c r="AJ30" s="13">
+      <c r="AI30" s="26"/>
+      <c r="AJ30" s="26">
         <v>0.70081967213114704</v>
       </c>
-      <c r="AK30" s="13"/>
-      <c r="AL30" s="13">
+      <c r="AK30" s="26"/>
+      <c r="AL30" s="26">
         <v>0.70081967213114704</v>
       </c>
-      <c r="AM30" s="13"/>
-      <c r="AN30" s="13">
+      <c r="AM30" s="26"/>
+      <c r="AN30" s="26">
         <v>0.68</v>
       </c>
-      <c r="AO30" s="14"/>
-      <c r="AP30" s="12">
+      <c r="AO30" s="27"/>
+      <c r="AP30" s="25">
         <v>0.64133738601823698</v>
       </c>
-      <c r="AQ30" s="13"/>
-      <c r="AR30" s="13">
+      <c r="AQ30" s="26"/>
+      <c r="AR30" s="26">
         <v>0.52037617554858895</v>
       </c>
-      <c r="AS30" s="13"/>
-      <c r="AT30" s="13">
+      <c r="AS30" s="26"/>
+      <c r="AT30" s="26">
         <v>0.48148148148148101</v>
       </c>
-      <c r="AU30" s="13"/>
-      <c r="AV30" s="13">
+      <c r="AU30" s="26"/>
+      <c r="AV30" s="26">
         <v>0.52453987730061302</v>
       </c>
-      <c r="AW30" s="14"/>
+      <c r="AW30" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="246">
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AF18:AG18"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AF21:AG21"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="Z2:AG2"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="R2:Y2"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="AH2:AO2"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AJ6:AK6"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="AN6:AO6"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="AJ12:AK12"/>
-    <mergeCell ref="AL12:AM12"/>
-    <mergeCell ref="AN12:AO12"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="AJ15:AK15"/>
-    <mergeCell ref="AL15:AM15"/>
-    <mergeCell ref="AN15:AO15"/>
-    <mergeCell ref="AH18:AI18"/>
-    <mergeCell ref="AJ18:AK18"/>
-    <mergeCell ref="AL18:AM18"/>
-    <mergeCell ref="AN18:AO18"/>
-    <mergeCell ref="AH21:AI21"/>
-    <mergeCell ref="AJ21:AK21"/>
-    <mergeCell ref="AL21:AM21"/>
-    <mergeCell ref="AN21:AO21"/>
-    <mergeCell ref="AH24:AI24"/>
-    <mergeCell ref="AJ24:AK24"/>
-    <mergeCell ref="AL24:AM24"/>
-    <mergeCell ref="AN24:AO24"/>
+    <mergeCell ref="AP30:AQ30"/>
+    <mergeCell ref="AR30:AS30"/>
+    <mergeCell ref="AT30:AU30"/>
+    <mergeCell ref="AV30:AW30"/>
+    <mergeCell ref="AP21:AQ21"/>
+    <mergeCell ref="AR21:AS21"/>
+    <mergeCell ref="AT21:AU21"/>
+    <mergeCell ref="AV21:AW21"/>
+    <mergeCell ref="AP24:AQ24"/>
+    <mergeCell ref="AR24:AS24"/>
+    <mergeCell ref="AT24:AU24"/>
+    <mergeCell ref="AV24:AW24"/>
+    <mergeCell ref="AP27:AQ27"/>
+    <mergeCell ref="AR27:AS27"/>
+    <mergeCell ref="AT27:AU27"/>
+    <mergeCell ref="AV27:AW27"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AP15:AQ15"/>
+    <mergeCell ref="AR15:AS15"/>
+    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AP18:AQ18"/>
+    <mergeCell ref="AR18:AS18"/>
+    <mergeCell ref="AT18:AU18"/>
+    <mergeCell ref="AV18:AW18"/>
     <mergeCell ref="AH27:AI27"/>
     <mergeCell ref="AJ27:AK27"/>
     <mergeCell ref="AL27:AM27"/>
@@ -4644,31 +4472,203 @@
     <mergeCell ref="AP12:AQ12"/>
     <mergeCell ref="AR12:AS12"/>
     <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AP15:AQ15"/>
-    <mergeCell ref="AR15:AS15"/>
-    <mergeCell ref="AT15:AU15"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AP18:AQ18"/>
-    <mergeCell ref="AR18:AS18"/>
-    <mergeCell ref="AT18:AU18"/>
-    <mergeCell ref="AV18:AW18"/>
-    <mergeCell ref="AP30:AQ30"/>
-    <mergeCell ref="AR30:AS30"/>
-    <mergeCell ref="AT30:AU30"/>
-    <mergeCell ref="AV30:AW30"/>
-    <mergeCell ref="AP21:AQ21"/>
-    <mergeCell ref="AR21:AS21"/>
-    <mergeCell ref="AT21:AU21"/>
-    <mergeCell ref="AV21:AW21"/>
-    <mergeCell ref="AP24:AQ24"/>
-    <mergeCell ref="AR24:AS24"/>
-    <mergeCell ref="AT24:AU24"/>
-    <mergeCell ref="AV24:AW24"/>
-    <mergeCell ref="AP27:AQ27"/>
-    <mergeCell ref="AR27:AS27"/>
-    <mergeCell ref="AT27:AU27"/>
-    <mergeCell ref="AV27:AW27"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AJ18:AK18"/>
+    <mergeCell ref="AL18:AM18"/>
+    <mergeCell ref="AN18:AO18"/>
+    <mergeCell ref="AH21:AI21"/>
+    <mergeCell ref="AJ21:AK21"/>
+    <mergeCell ref="AL21:AM21"/>
+    <mergeCell ref="AN21:AO21"/>
+    <mergeCell ref="AH24:AI24"/>
+    <mergeCell ref="AJ24:AK24"/>
+    <mergeCell ref="AL24:AM24"/>
+    <mergeCell ref="AN24:AO24"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="AJ12:AK12"/>
+    <mergeCell ref="AL12:AM12"/>
+    <mergeCell ref="AN12:AO12"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="AJ15:AK15"/>
+    <mergeCell ref="AL15:AM15"/>
+    <mergeCell ref="AN15:AO15"/>
+    <mergeCell ref="AH2:AO2"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AJ6:AK6"/>
+    <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="Z2:AG2"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="AF30:AG30"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="AF18:AG18"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AF21:AG21"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="AF24:AG24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
